--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="13760" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>//Remark</t>
   </si>
@@ -52,12 +52,27 @@
     <t>bool</t>
   </si>
   <si>
+    <t>Elemental Ball</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Default</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>Holy Thunder</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
     <t>imgIconSkill_BFStrike</t>
   </si>
   <si>
@@ -80,6 +95,12 @@
   </si>
   <si>
     <t>imgIconSkill_InjuryB</t>
+  </si>
+  <si>
+    <t>Self Heal</t>
+  </si>
+  <si>
+    <t>Inspire</t>
   </si>
 </sst>
 </file>
@@ -701,11 +722,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,13 +1049,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
@@ -1093,7 +1117,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -1105,18 +1129,18 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2001</v>
-      </c>
-      <c r="F4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2101</v>
+        <v>1101</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -1124,63 +1148,201 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2001</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
+        <v>1001</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2102</v>
+        <v>1301</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="b">
+      <c r="D6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2001</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
+        <v>1001</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
+        <v>1302</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1001</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>2101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1002</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>2102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1002</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>2111</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="b">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="b">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>2001</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7">
+      <c r="E11">
+        <v>1002</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>2201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1002</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>2301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1002</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13760" windowHeight="6800"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>//Remark</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>nodeType</t>
+  </si>
+  <si>
+    <t>costSP</t>
+  </si>
+  <si>
+    <t>conditionSPSpent</t>
   </si>
   <si>
     <t>isInitUnlock</t>
@@ -1049,19 +1055,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.4545454545455" customWidth="1"/>
-    <col min="6" max="6" width="22.3636363636364" customWidth="1"/>
+    <col min="5" max="5" width="17.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.4545454545455" customWidth="1"/>
+    <col min="8" max="8" width="22.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1069,7 +1077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1091,257 +1099,329 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>8</v>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="b">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>1001</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>1001</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>1301</v>
       </c>
       <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1001</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1001</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>1302</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1001</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>2001</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="b">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>1002</v>
       </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>2101</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1002</v>
       </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>2102</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
       </c>
       <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1002</v>
       </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>2111</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
       <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>1002</v>
       </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11">
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>2201</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>1002</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12">
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>2301</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>1002</v>
       </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13">
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>//Remark</t>
   </si>
@@ -25,6 +25,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>desc</t>
+  </si>
+  <si>
     <t>nodeType</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>conditionSPSpent</t>
   </si>
   <si>
+    <t>conditionPreNode</t>
+  </si>
+  <si>
     <t>isInitUnlock</t>
   </si>
   <si>
@@ -55,21 +61,51 @@
     <t>enum|SkillNodeType</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>bool</t>
   </si>
   <si>
     <t>Elemental Ball</t>
   </si>
   <si>
+    <t>Normal Attack,deal ATK damage.</t>
+  </si>
+  <si>
     <t>Active</t>
   </si>
   <si>
     <t>imgIconSkill_Default</t>
   </si>
   <si>
+    <t>Magic Apprentice</t>
+  </si>
+  <si>
+    <t>Increase ATK by 1 point.</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
+    <t>Quick Fire</t>
+  </si>
+  <si>
+    <t>AP Cost of Inferno - 1, but damage - 2.</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Fire Area</t>
+  </si>
+  <si>
+    <t>Skill Radius of Inferno + 1,but damage - 2.</t>
+  </si>
+  <si>
     <t>Holy Thunder</t>
   </si>
   <si>
@@ -95,9 +131,6 @@
   </si>
   <si>
     <t>Injury Benefit</t>
-  </si>
-  <si>
-    <t>Passive</t>
   </si>
   <si>
     <t>imgIconSkill_InjuryB</t>
@@ -1055,21 +1088,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.5454545454545" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="22.3636363636364" customWidth="1"/>
+    <col min="3" max="3" width="44.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="7" width="17.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
+    <col min="10" max="10" width="22.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1077,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1087,7 +1121,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1105,323 +1139,476 @@
       <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="b">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1001</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
+        <v>1071</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1001</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
         <v>1101</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1001</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>1301</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1001</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>1302</v>
+        <v>1191</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="2" t="b">
-        <v>0</v>
+      <c r="F7" s="2">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1001</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1001</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8">
+        <v>1192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1001</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1001</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>1301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1001</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>1302</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1001</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
         <v>2001</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1002</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>2101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1002</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>2102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1002</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>2191</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1002</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>2201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1002</v>
+      </c>
+      <c r="J15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
+      <c r="K15">
         <v>1</v>
       </c>
-      <c r="G8">
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>2301</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1002</v>
       </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
-        <v>2101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1002</v>
-      </c>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>2102</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <v>4</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1002</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
-        <v>2111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1002</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12">
-        <v>2201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1002</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>2301</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1002</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13">
+      <c r="J16" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>//Remark</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>rowID</t>
+  </si>
+  <si>
+    <t>columnID</t>
   </si>
   <si>
     <t>int</t>
@@ -1088,10 +1091,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1145,54 +1148,60 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1210,24 +1219,27 @@
         <v>1001</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1071</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1245,21 +1257,24 @@
         <v>1001</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1101</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1277,24 +1292,27 @@
         <v>1001</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
+      <c r="L6">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>1191</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2">
         <v>2</v>
@@ -1312,24 +1330,27 @@
         <v>1001</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" s="2">
         <v>2</v>
       </c>
+      <c r="L7">
+        <v>-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1192</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>2</v>
@@ -1347,21 +1368,24 @@
         <v>1001</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2">
         <v>2</v>
       </c>
+      <c r="L8">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>1301</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1379,21 +1403,24 @@
         <v>1001</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" s="2">
         <v>1</v>
       </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>1302</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2">
         <v>2</v>
@@ -1411,24 +1438,27 @@
         <v>1001</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" s="2">
         <v>2</v>
       </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2001</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1446,21 +1476,24 @@
         <v>1002</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2101</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1478,21 +1511,24 @@
         <v>1002</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
+      <c r="L12">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2102</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1510,21 +1546,24 @@
         <v>1002</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
+      <c r="L13">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2191</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1542,21 +1581,24 @@
         <v>1002</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
+      <c r="L14">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>2201</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1574,21 +1616,24 @@
         <v>1002</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>2301</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1606,10 +1651,13 @@
         <v>1002</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K16">
         <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>//Remark</t>
   </si>
@@ -55,6 +55,9 @@
     <t>columnID</t>
   </si>
   <si>
+    <t>remark</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Numerical</t>
   </si>
   <si>
+    <t>1011HP,1021ATK,1031DEF,1041RES,1051MOVE</t>
+  </si>
+  <si>
     <t>Inferno</t>
   </si>
   <si>
@@ -109,12 +115,49 @@
     <t>Skill Radius of Inferno + 1,but damage - 2.</t>
   </si>
   <si>
+    <t>Boom!</t>
+  </si>
+  <si>
+    <t>Deal damage according to burning.</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>Water Shield</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>Remove 1 debuff.</t>
+  </si>
+  <si>
+    <t>1201;1202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravity </t>
+  </si>
+  <si>
     <t>Holy Thunder</t>
   </si>
   <si>
+    <t>Dizzy Light</t>
+  </si>
+  <si>
     <t>Teleport</t>
   </si>
   <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>Give character a Buff named Infinite with 3 layers.
+Infinite can enlarge next 3 skills' radius by 1 unit.</t>
+  </si>
+  <si>
+    <t>1102;1204;1302</t>
+  </si>
+  <si>
     <t>Strike</t>
   </si>
   <si>
@@ -127,16 +170,16 @@
     <t>imgIconSkill_BFCut</t>
   </si>
   <si>
+    <t>Injury Benefit</t>
+  </si>
+  <si>
+    <t>imgIconSkill_InjuryB</t>
+  </si>
+  <si>
     <t>Overtime Work</t>
   </si>
   <si>
     <t>imgIconSkill_Overtime</t>
-  </si>
-  <si>
-    <t>Injury Benefit</t>
-  </si>
-  <si>
-    <t>imgIconSkill_InjuryB</t>
   </si>
   <si>
     <t>Self Heal</t>
@@ -308,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +361,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDFE0E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +713,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,16 +737,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -682,97 +755,115 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1091,10 +1182,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1107,6 +1198,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
     <col min="10" max="10" width="22.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="40" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1114,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1151,57 +1243,63 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1218,28 +1316,28 @@
       <c r="I4">
         <v>1001</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4">
         <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
-        <v>1071</v>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2">
+        <v>1021</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1248,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1256,408 +1354,665 @@
       <c r="I5">
         <v>1001</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
+        <v>1101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
-        <v>1101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="b">
+        <v>1001</v>
+      </c>
+      <c r="H6" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I6">
         <v>1001</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="J6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="4">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>1191</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
+      <c r="F7">
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1001</v>
-      </c>
-      <c r="H7" s="2" t="b">
+        <v>1101</v>
+      </c>
+      <c r="H7" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I7">
         <v>1001</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="4">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>1192</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
+      <c r="F8">
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1001</v>
-      </c>
-      <c r="H8" s="2" t="b">
+        <v>1101</v>
+      </c>
+      <c r="H8" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I8">
         <v>1001</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3">
+        <v>1102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="2">
+      <c r="E9" s="4">
         <v>2</v>
       </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>1301</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="b">
+        <v>1101</v>
+      </c>
+      <c r="H9" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I9">
         <v>1001</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="5">
+        <v>1201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="2">
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>1302</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2</v>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="b">
+        <v>1001</v>
+      </c>
+      <c r="H10" s="4" t="b">
         <v>0</v>
       </c>
       <c r="I10">
         <v>1001</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5">
+        <v>1202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="2">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1001</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1001</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5">
+        <v>1203</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1001</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="4">
         <v>2</v>
       </c>
-      <c r="L10">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="5">
+        <v>1204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1203</v>
+      </c>
+      <c r="H13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1001</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
+        <v>1301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1001</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1001</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
+        <v>1391</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1301</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1001</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="6">
+        <v>1302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1301</v>
+      </c>
+      <c r="H16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1001</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="56" spans="1:12">
+      <c r="A17" s="7">
+        <v>1901</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1001</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="4">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
         <v>2001</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="I11">
+      <c r="I18">
         <v>1002</v>
       </c>
-      <c r="J11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="3">
         <v>2101</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>2001</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1002</v>
       </c>
-      <c r="J12" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12">
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
+      <c r="L19">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3">
+        <v>2191</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>2101</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1002</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3">
         <v>2102</v>
       </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2191</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1002</v>
       </c>
-      <c r="J13" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="L13">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
-        <v>2191</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14">
+      <c r="L21">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="5">
+        <v>2201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>2001</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>1002</v>
       </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
-        <v>2201</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="6">
+        <v>2301</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>2001</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1002</v>
       </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15">
+      <c r="J23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23">
         <v>1</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
-        <v>2301</v>
-      </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1002</v>
-      </c>
-      <c r="J16" t="s">
-        <v>21</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>2</v>
+      <c r="L23">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>//Remark</t>
   </si>
@@ -100,6 +100,10 @@
     <t>Inferno</t>
   </si>
   <si>
+    <t>Target all units and deal 1.5ATK+2 damage,
+with one level burning.</t>
+  </si>
+  <si>
     <t>Quick Fire</t>
   </si>
   <si>
@@ -121,10 +125,22 @@
     <t>Deal damage according to burning.</t>
   </si>
   <si>
+    <t>Time Transfer</t>
+  </si>
+  <si>
+    <t>Dodge next attack.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravity </t>
+  </si>
+  <si>
+    <t>Gravity magic attack that reduce movement.</t>
+  </si>
+  <si>
     <t>Stream</t>
   </si>
   <si>
-    <t>Water Shield</t>
+    <t>Water magic attack that can heal plant.</t>
   </si>
   <si>
     <t>Clear</t>
@@ -133,29 +149,41 @@
     <t>Remove 1 debuff.</t>
   </si>
   <si>
-    <t>1201;1202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gravity </t>
-  </si>
-  <si>
     <t>Holy Thunder</t>
   </si>
   <si>
+    <t>Electricity Attack. Water tile can transmit damage.</t>
+  </si>
+  <si>
     <t>Dizzy Light</t>
   </si>
   <si>
+    <t>Holy Thunder will give target debuff named Dizzy.</t>
+  </si>
+  <si>
     <t>Teleport</t>
   </si>
   <si>
-    <t>Infinite</t>
-  </si>
-  <si>
-    <t>Give character a Buff named Infinite with 3 layers.
-Infinite can enlarge next 3 skills' radius by 1 unit.</t>
-  </si>
-  <si>
-    <t>1102;1204;1302</t>
+    <t>Change one unit position.</t>
+  </si>
+  <si>
+    <t>Time Expand</t>
+  </si>
+  <si>
+    <t>Double all debuff counter.</t>
+  </si>
+  <si>
+    <t>1102;1202</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>Gain 3 Infinity.
+Infinity can enlarge next X skills' radius by 1 unit.</t>
+  </si>
+  <si>
+    <t>1302;1402</t>
   </si>
   <si>
     <t>Strike</t>
@@ -167,25 +195,70 @@
     <t>Worker Wind</t>
   </si>
   <si>
+    <t>Deal damage to enemy around.</t>
+  </si>
+  <si>
     <t>imgIconSkill_BFCut</t>
   </si>
   <si>
     <t>Injury Benefit</t>
   </si>
   <si>
+    <t>Deal extra damage when</t>
+  </si>
+  <si>
     <t>imgIconSkill_InjuryB</t>
   </si>
   <si>
     <t>Overtime Work</t>
   </si>
   <si>
+    <t>Gain extra AP every turn but gain burning as well.</t>
+  </si>
+  <si>
     <t>imgIconSkill_Overtime</t>
   </si>
   <si>
+    <t>Provoke</t>
+  </si>
+  <si>
+    <t>Attract enemies' attack.</t>
+  </si>
+  <si>
     <t>Self Heal</t>
   </si>
   <si>
+    <t>Heal one character according to HP.</t>
+  </si>
+  <si>
     <t>Inspire</t>
+  </si>
+  <si>
+    <t>Gain 1 AP.</t>
+  </si>
+  <si>
+    <t>Rush Hour</t>
+  </si>
+  <si>
+    <t>Gain 3 Movement.</t>
+  </si>
+  <si>
+    <t>Final Guard</t>
+  </si>
+  <si>
+    <t>HP won't become 0.</t>
+  </si>
+  <si>
+    <t>2102;2201</t>
+  </si>
+  <si>
+    <t>Super Worker</t>
+  </si>
+  <si>
+    <t>Increase ATK,DEF,RES,max Movement by 1.</t>
+  </si>
+  <si>
+    <t>2301;2402</t>
   </si>
 </sst>
 </file>
@@ -351,7 +424,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,6 +446,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0D8FD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,7 +792,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,16 +816,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -755,89 +834,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,22 +927,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -922,6 +1004,8 @@
     <mruColors>
       <color rgb="00AAAAC6"/>
       <color rgb="00DFE0E5"/>
+      <color rgb="00D6CAFC"/>
+      <color rgb="00E0D8FD"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1182,16 +1266,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="44.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="53.4545454545455" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="7" width="17.5454545454545" customWidth="1"/>
@@ -1316,10 +1402,10 @@
       <c r="I4">
         <v>1001</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
         <v>0</v>
       </c>
       <c r="L4">
@@ -1354,48 +1440,51 @@
       <c r="I5">
         <v>1001</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" ht="28" spans="1:12">
       <c r="A6" s="3">
         <v>1101</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
         <v>0</v>
       </c>
       <c r="G6">
         <v>1001</v>
       </c>
-      <c r="H6" s="4" t="b">
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I6">
         <v>1001</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>1</v>
       </c>
       <c r="L6">
@@ -1407,15 +1496,15 @@
         <v>1191</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="4">
+        <v>31</v>
+      </c>
+      <c r="E7" s="5">
         <v>2</v>
       </c>
       <c r="F7">
@@ -1424,16 +1513,16 @@
       <c r="G7">
         <v>1101</v>
       </c>
-      <c r="H7" s="4" t="b">
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I7">
         <v>1001</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="5">
         <v>2</v>
       </c>
       <c r="L7">
@@ -1445,15 +1534,15 @@
         <v>1192</v>
       </c>
       <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>2</v>
       </c>
       <c r="F8">
@@ -1462,16 +1551,16 @@
       <c r="G8">
         <v>1101</v>
       </c>
-      <c r="H8" s="4" t="b">
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I8">
         <v>1001</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="5">
         <v>2</v>
       </c>
       <c r="L8">
@@ -1483,15 +1572,15 @@
         <v>1102</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>2</v>
       </c>
       <c r="F9">
@@ -1500,16 +1589,16 @@
       <c r="G9">
         <v>1101</v>
       </c>
-      <c r="H9" s="4" t="b">
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I9">
         <v>1001</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>3</v>
       </c>
       <c r="L9">
@@ -1517,16 +1606,19 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>1201</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>1</v>
       </c>
       <c r="F10">
@@ -1535,16 +1627,16 @@
       <c r="G10">
         <v>1001</v>
       </c>
-      <c r="H10" s="4" t="b">
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I10">
         <v>1001</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="5">
         <v>1</v>
       </c>
       <c r="L10">
@@ -1552,124 +1644,133 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>1202</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
+      <c r="E11" s="5">
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1001</v>
-      </c>
-      <c r="H11" s="4" t="b">
+        <v>1201</v>
+      </c>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I11">
         <v>1001</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="4">
-        <v>1</v>
+      <c r="K11" s="5">
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="5">
-        <v>1203</v>
+      <c r="A12" s="7">
+        <v>1301</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="4" t="b">
+      <c r="G12">
+        <v>1001</v>
+      </c>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I12">
         <v>1001</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="4">
-        <v>2</v>
+      <c r="K12" s="5">
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="5">
-        <v>1204</v>
+      <c r="A13" s="7">
+        <v>1302</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="4">
-        <v>2</v>
+      <c r="E13" s="5">
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1203</v>
-      </c>
-      <c r="H13" s="4" t="b">
+        <v>1301</v>
+      </c>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I13">
         <v>1001</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <v>3</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="6">
-        <v>1301</v>
+      <c r="A14" s="8">
+        <v>1401</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
       <c r="F14">
@@ -1678,16 +1779,16 @@
       <c r="G14">
         <v>1001</v>
       </c>
-      <c r="H14" s="4" t="b">
+      <c r="H14" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I14">
         <v>1001</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="5">
         <v>1</v>
       </c>
       <c r="L14">
@@ -1695,34 +1796,37 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="6">
-        <v>1391</v>
+      <c r="A15" s="8">
+        <v>1491</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="4">
+        <v>31</v>
+      </c>
+      <c r="E15" s="5">
         <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1301</v>
-      </c>
-      <c r="H15" s="4" t="b">
+        <v>1401</v>
+      </c>
+      <c r="H15" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I15">
         <v>1001</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>2</v>
       </c>
       <c r="L15">
@@ -1730,169 +1834,178 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="6">
-        <v>1302</v>
+      <c r="A16" s="8">
+        <v>1402</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1301</v>
-      </c>
-      <c r="H16" s="4" t="b">
+        <v>1401</v>
+      </c>
+      <c r="H16" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I16">
         <v>1001</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>3</v>
       </c>
       <c r="L16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="56" spans="1:12">
-      <c r="A17" s="7">
+    <row r="17" spans="1:12">
+      <c r="A17" s="9">
         <v>1901</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="5">
         <v>3</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" s="4" t="b">
+        <v>52</v>
+      </c>
+      <c r="H17" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I17">
         <v>1001</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>4</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2">
-        <v>2001</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:12">
+      <c r="A18" s="9">
+        <v>1902</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" s="5">
+        <v>3</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1002</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
+        <v>1001</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="5">
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3">
-        <v>2101</v>
+      <c r="A19" s="2">
+        <v>2001</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1002</v>
       </c>
       <c r="J19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3">
-        <v>2191</v>
+        <v>2101</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1901,10 +2014,10 @@
         <v>1002</v>
       </c>
       <c r="J20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
         <v>-3</v>
@@ -1912,13 +2025,16 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="3">
-        <v>2102</v>
+        <v>2191</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1927,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2191</v>
+        <v>2101</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1936,33 +2052,36 @@
         <v>1002</v>
       </c>
       <c r="J21" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>-3</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="5">
-        <v>2201</v>
+      <c r="A22" s="3">
+        <v>2102</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2001</v>
+        <v>2191</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1971,21 +2090,24 @@
         <v>1002</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="6">
-        <v>2301</v>
+        <v>2201</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -2012,7 +2134,197 @@
         <v>1</v>
       </c>
       <c r="L23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="7">
+        <v>2301</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>2001</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1002</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="8">
+        <v>2401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2001</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1002</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="8">
+        <v>2402</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>2401</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1002</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="9">
+        <v>2901</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1002</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="9">
+        <v>2902</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1002</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="15900" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15900" windowHeight="13060"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B11" sqref="B11"/>
+      <selection pane="topRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>//Remark</t>
   </si>
@@ -231,16 +231,22 @@
     <t>Heal one character according to HP.</t>
   </si>
   <si>
+    <t>Rush Hour</t>
+  </si>
+  <si>
+    <t>Gain 3 Movement.</t>
+  </si>
+  <si>
+    <t>Helper Hand</t>
+  </si>
+  <si>
+    <t>Enlarge the range of the support skill</t>
+  </si>
+  <si>
     <t>Inspire</t>
   </si>
   <si>
     <t>Gain 1 AP.</t>
-  </si>
-  <si>
-    <t>Rush Hour</t>
-  </si>
-  <si>
-    <t>Gain 3 Movement.</t>
   </si>
   <si>
     <t>Final Guard</t>
@@ -1266,12 +1272,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B28" sqref="B28"/>
+      <selection pane="topRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2215,7 +2221,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="8">
-        <v>2402</v>
+        <v>2491</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -2224,10 +2230,10 @@
         <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2245,15 +2251,15 @@
         <v>22</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="9">
-        <v>2901</v>
+      <c r="A27" s="8">
+        <v>2402</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -2265,13 +2271,13 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
-      <c r="G27" t="s">
-        <v>77</v>
+      <c r="G27">
+        <v>2401</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -2283,21 +2289,21 @@
         <v>22</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="9">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
         <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
@@ -2309,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -2324,6 +2330,44 @@
         <v>4</v>
       </c>
       <c r="L28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="9">
+        <v>2902</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1002</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="17020" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
   <si>
     <t>//Remark</t>
   </si>
@@ -94,7 +94,13 @@
     <t>Numerical</t>
   </si>
   <si>
-    <t>1011HP,1021ATK,1031DEF,1041RES,1051MOVE</t>
+    <t>1011HP,1021ATK,1031DEF,1041RES,1051MOVE,1061AP</t>
+  </si>
+  <si>
+    <t>Mage Armor</t>
+  </si>
+  <si>
+    <t>Increase RES by 1 point.</t>
   </si>
   <si>
     <t>Inferno</t>
@@ -190,6 +196,15 @@
   </si>
   <si>
     <t>imgIconSkill_BFStrike</t>
+  </si>
+  <si>
+    <t>Worker Strength</t>
+  </si>
+  <si>
+    <t>Pressure Resist</t>
+  </si>
+  <si>
+    <t>Increase DEF by 1 point.</t>
   </si>
   <si>
     <t>Worker Wind</t>
@@ -1272,12 +1287,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K27" sqref="K27"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1290,7 +1305,7 @@
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
     <col min="10" max="10" width="22.3636363636364" customWidth="1"/>
-    <col min="13" max="13" width="40" customWidth="1"/>
+    <col min="13" max="13" width="47.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1438,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -1459,29 +1474,29 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="28" spans="1:12">
-      <c r="A6" s="3">
-        <v>1101</v>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>1041</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1001</v>
-      </c>
-      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6">
@@ -1491,33 +1506,33 @@
         <v>22</v>
       </c>
       <c r="K6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:12">
       <c r="A7" s="3">
-        <v>1191</v>
+        <v>1101</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1101</v>
+        <v>1001</v>
       </c>
       <c r="H7" s="5" t="b">
         <v>0</v>
@@ -1529,24 +1544,24 @@
         <v>22</v>
       </c>
       <c r="K7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -1570,12 +1585,12 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>-2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3">
-        <v>1102</v>
+        <v>1192</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -1584,7 +1599,7 @@
         <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -1605,15 +1620,15 @@
         <v>22</v>
       </c>
       <c r="K9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="6">
-        <v>1201</v>
+      <c r="A10" s="3">
+        <v>1102</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1625,13 +1640,13 @@
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1001</v>
+        <v>1101</v>
       </c>
       <c r="H10" s="5" t="b">
         <v>0</v>
@@ -1643,15 +1658,15 @@
         <v>22</v>
       </c>
       <c r="K10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="6">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1663,13 +1678,13 @@
         <v>21</v>
       </c>
       <c r="E11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1201</v>
+        <v>1001</v>
       </c>
       <c r="H11" s="5" t="b">
         <v>0</v>
@@ -1681,15 +1696,15 @@
         <v>22</v>
       </c>
       <c r="K11" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
         <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="7">
-        <v>1301</v>
+      <c r="A12" s="6">
+        <v>1202</v>
       </c>
       <c r="B12" t="s">
         <v>40</v>
@@ -1701,13 +1716,13 @@
         <v>21</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1001</v>
+        <v>1201</v>
       </c>
       <c r="H12" s="5" t="b">
         <v>0</v>
@@ -1719,15 +1734,15 @@
         <v>22</v>
       </c>
       <c r="K12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="7">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
@@ -1745,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1301</v>
+        <v>1001</v>
       </c>
       <c r="H13" s="5" t="b">
         <v>0</v>
@@ -1757,15 +1772,15 @@
         <v>22</v>
       </c>
       <c r="K13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="8">
-        <v>1401</v>
+      <c r="A14" s="7">
+        <v>1302</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -1783,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1001</v>
+        <v>1301</v>
       </c>
       <c r="H14" s="5" t="b">
         <v>0</v>
@@ -1795,15 +1810,15 @@
         <v>22</v>
       </c>
       <c r="K14" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="8">
-        <v>1491</v>
+        <v>1401</v>
       </c>
       <c r="B15" t="s">
         <v>46</v>
@@ -1812,16 +1827,16 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1401</v>
+        <v>1001</v>
       </c>
       <c r="H15" s="5" t="b">
         <v>0</v>
@@ -1833,15 +1848,15 @@
         <v>22</v>
       </c>
       <c r="K15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="8">
-        <v>1402</v>
+        <v>1491</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -1850,7 +1865,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E16" s="5">
         <v>2</v>
@@ -1871,15 +1886,15 @@
         <v>22</v>
       </c>
       <c r="K16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="9">
-        <v>1901</v>
+      <c r="A17" s="8">
+        <v>1402</v>
       </c>
       <c r="B17" t="s">
         <v>50</v>
@@ -1891,13 +1906,13 @@
         <v>21</v>
       </c>
       <c r="E17" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>52</v>
+      <c r="G17">
+        <v>1401</v>
       </c>
       <c r="H17" s="5" t="b">
         <v>0</v>
@@ -1909,21 +1924,21 @@
         <v>22</v>
       </c>
       <c r="K17" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" ht="42" spans="1:12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="9">
-        <v>1902</v>
+        <v>1901</v>
       </c>
       <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
         <v>53</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1935,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="5" t="b">
         <v>0</v>
@@ -1950,106 +1965,106 @@
         <v>4</v>
       </c>
       <c r="L18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2">
-        <v>2001</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:12">
+      <c r="A19" s="9">
+        <v>1902</v>
       </c>
       <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19">
-        <v>0</v>
+      <c r="E19" s="5">
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
+      <c r="G19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1002</v>
-      </c>
-      <c r="J19" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
+        <v>1001</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="5">
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="3">
-        <v>2101</v>
+      <c r="A20" s="2">
+        <v>2001</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1002</v>
       </c>
       <c r="J20" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
+        <v>2021</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3">
-        <v>2191</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2101</v>
+        <v>0</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -2057,37 +2072,37 @@
       <c r="I21">
         <v>1002</v>
       </c>
-      <c r="J21" t="s">
-        <v>63</v>
-      </c>
-      <c r="K21">
+      <c r="J21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>2</v>
       </c>
-      <c r="L21">
-        <v>-3</v>
-      </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="3">
-        <v>2102</v>
+      <c r="A22" s="2">
+        <v>2031</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2191</v>
+        <v>0</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -2095,25 +2110,25 @@
       <c r="I22">
         <v>1002</v>
       </c>
-      <c r="J22" t="s">
-        <v>66</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
+      <c r="J22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="6">
-        <v>2201</v>
+      <c r="A23" s="3">
+        <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
         <v>21</v>
@@ -2134,36 +2149,36 @@
         <v>1002</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="7">
-        <v>2301</v>
+      <c r="A24" s="3">
+        <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
@@ -2172,36 +2187,36 @@
         <v>1002</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="8">
-        <v>2401</v>
+      <c r="A25" s="3">
+        <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
         <v>21</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2001</v>
+        <v>2191</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -2210,36 +2225,36 @@
         <v>1002</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="8">
-        <v>2491</v>
+      <c r="A26" s="6">
+        <v>2201</v>
       </c>
       <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
         <v>73</v>
       </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -2251,21 +2266,21 @@
         <v>22</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="8">
-        <v>2402</v>
+      <c r="A27" s="7">
+        <v>2301</v>
       </c>
       <c r="B27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s">
         <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
@@ -2277,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
@@ -2289,33 +2304,33 @@
         <v>22</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="9">
-        <v>2901</v>
+      <c r="A28" s="8">
+        <v>2401</v>
       </c>
       <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
         <v>77</v>
-      </c>
-      <c r="C28" t="s">
-        <v>78</v>
       </c>
       <c r="D28" t="s">
         <v>21</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" t="s">
-        <v>79</v>
+      <c r="G28">
+        <v>2001</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -2327,33 +2342,33 @@
         <v>22</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="9">
-        <v>2902</v>
+      <c r="A29" s="8">
+        <v>2491</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" t="s">
-        <v>82</v>
+      <c r="G29">
+        <v>2401</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
@@ -2365,9 +2380,123 @@
         <v>22</v>
       </c>
       <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="8">
+        <v>2402</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>2401</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1002</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="9">
+        <v>2901</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1002</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31">
         <v>4</v>
       </c>
-      <c r="L29">
+      <c r="L31">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="9">
+        <v>2902</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1002</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -119,7 +119,7 @@
     <t>Passive</t>
   </si>
   <si>
-    <t>Fire Area</t>
+    <t>Field of Scorch</t>
   </si>
   <si>
     <t>Skill Radius of Inferno + 1,but damage - 2.</t>
@@ -219,7 +219,7 @@
     <t>Injury Benefit</t>
   </si>
   <si>
-    <t>Deal extra damage when</t>
+    <t>Deal more damage when lost more HP.</t>
   </si>
   <si>
     <t>imgIconSkill_InjuryB</t>
@@ -1289,10 +1289,10 @@
   <sheetPr/>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C22" sqref="C22"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17020" windowHeight="8940"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
   <si>
     <t>//Remark</t>
   </si>
@@ -40,6 +40,9 @@
     <t>conditionPreNode</t>
   </si>
   <si>
+    <t>conflictNode</t>
+  </si>
+  <si>
     <t>isInitUnlock</t>
   </si>
   <si>
@@ -106,7 +109,7 @@
     <t>Inferno</t>
   </si>
   <si>
-    <t>Target all units and deal 1.5ATK+2 damage,
+    <t>Target all units and deal 1.35ATK+1 damage,
 with one level burning.</t>
   </si>
   <si>
@@ -123,6 +126,12 @@
   </si>
   <si>
     <t>Skill Radius of Inferno + 1,but damage - 2.</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>Inferno will cost all AP, each extra AP deal more damage.</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -1287,25 +1296,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="53.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="58" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="7" width="17.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
-    <col min="10" max="10" width="22.3636363636364" customWidth="1"/>
-    <col min="13" max="13" width="47.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="13.5454545454545" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12.4545454545455" customWidth="1"/>
+    <col min="11" max="11" width="22.3636363636364" customWidth="1"/>
+    <col min="14" max="14" width="47.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1313,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1350,63 +1360,69 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1417,75 +1433,75 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>1001</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>1021</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1001</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1001</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="N5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>1041</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1496,34 +1512,34 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>1001</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>-2</v>
       </c>
     </row>
-    <row r="7" ht="28" spans="1:12">
+    <row r="7" ht="28" spans="1:13">
       <c r="A7" s="3">
         <v>1101</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1534,34 +1550,34 @@
       <c r="G7">
         <v>1001</v>
       </c>
-      <c r="H7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7">
+      <c r="I7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>1001</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="K7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="3">
         <v>1191</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
@@ -1572,34 +1588,37 @@
       <c r="G8">
         <v>1101</v>
       </c>
-      <c r="H8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8">
+        <v>1193</v>
+      </c>
+      <c r="I8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>1001</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="K8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="5">
         <v>2</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-4</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="3">
         <v>1192</v>
       </c>
       <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
         <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
       </c>
       <c r="E9" s="5">
         <v>2</v>
@@ -1610,34 +1629,34 @@
       <c r="G9">
         <v>1101</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9">
+      <c r="I9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>1001</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="5">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="3">
-        <v>1102</v>
+        <v>1193</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5">
         <v>2</v>
@@ -1648,262 +1667,265 @@
       <c r="G10">
         <v>1101</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10">
+      <c r="H10">
+        <v>1191</v>
+      </c>
+      <c r="I10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>1001</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="K10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="3">
+        <v>1102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="5">
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1101</v>
+      </c>
+      <c r="I11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1001</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="5">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="M11">
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="6">
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
         <v>1201</v>
       </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>1001</v>
       </c>
-      <c r="H11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11">
+      <c r="I12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>1001</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="6">
+        <v>1202</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11">
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1201</v>
+      </c>
+      <c r="I13" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1001</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="5">
+        <v>3</v>
+      </c>
+      <c r="M13">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="6">
-        <v>1202</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1201</v>
-      </c>
-      <c r="H12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12">
+    <row r="14" spans="1:13">
+      <c r="A14" s="7">
+        <v>1301</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>1001</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="I14" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>1001</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7">
+        <v>1302</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="5">
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1301</v>
+      </c>
+      <c r="I15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1001</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="5">
         <v>3</v>
       </c>
-      <c r="L12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7">
-        <v>1301</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8">
+        <v>1401</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>1001</v>
       </c>
-      <c r="H13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13">
+      <c r="I16" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>1001</v>
       </c>
-      <c r="J13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="7">
-        <v>1302</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1301</v>
-      </c>
-      <c r="H14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1001</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="5">
+      <c r="K16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>3</v>
       </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="8">
-        <v>1401</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1001</v>
-      </c>
-      <c r="H15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1001</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="8">
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="8">
         <v>1491</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1401</v>
-      </c>
-      <c r="H16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1001</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="5">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="8">
-        <v>1402</v>
-      </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5">
         <v>2</v>
@@ -1914,75 +1936,75 @@
       <c r="G17">
         <v>1401</v>
       </c>
-      <c r="H17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17">
+      <c r="I17" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>1001</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="K17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="8">
+        <v>1402</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="5">
+      <c r="E18" s="5">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>1401</v>
+      </c>
+      <c r="I18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1001</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="5">
         <v>3</v>
       </c>
-      <c r="L17">
+      <c r="M18">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="9">
+    <row r="19" spans="1:13">
+      <c r="A19" s="9">
         <v>1901</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1001</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="5">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" ht="42" spans="1:12">
-      <c r="A19" s="9">
-        <v>1902</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1990,177 +2012,177 @@
       <c r="G19" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="I19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>1001</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="5">
+      <c r="K19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="5">
         <v>4</v>
       </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2">
-        <v>2001</v>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:13">
+      <c r="A20" s="9">
+        <v>1902</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
-      <c r="C20" t="s">
-        <v>20</v>
+      <c r="C20" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1001</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="5">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20">
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21">
         <v>1002</v>
       </c>
-      <c r="J20" t="s">
-        <v>59</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2">
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2">
         <v>2021</v>
       </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>1002</v>
       </c>
-      <c r="J21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21">
+      <c r="K22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2">
+    <row r="23" spans="1:13">
+      <c r="A23" s="2">
         <v>2031</v>
       </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22">
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>1002</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22">
+      <c r="K23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>-2</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3">
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
         <v>2101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>2001</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1002</v>
-      </c>
-      <c r="J23" t="s">
-        <v>65</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3">
-        <v>2191</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
@@ -2169,36 +2191,36 @@
         <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2101</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24">
+        <v>2001</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>1002</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>68</v>
       </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
       <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <v>-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="3">
-        <v>2102</v>
+        <v>2191</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -2207,7 +2229,7 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -2216,27 +2238,27 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2191</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25">
+        <v>2101</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>1002</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>71</v>
       </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
       <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
         <v>-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="6">
-        <v>2201</v>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3">
+        <v>2102</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -2245,45 +2267,45 @@
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2001</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26">
+        <v>2191</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>1002</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>2201</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" t="s">
         <v>22</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="7">
-        <v>2301</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2294,34 +2316,34 @@
       <c r="G27">
         <v>2001</v>
       </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27">
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>1002</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7">
+        <v>2301</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="8">
-        <v>2401</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2332,75 +2354,75 @@
       <c r="G28">
         <v>2001</v>
       </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28">
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>1002</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="8">
+        <v>2401</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2001</v>
+      </c>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>1002</v>
+      </c>
+      <c r="K29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="8">
+    <row r="30" spans="1:13">
+      <c r="A30" s="8">
         <v>2491</v>
       </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29">
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30">
         <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>2401</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1002</v>
-      </c>
-      <c r="J29" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="8">
-        <v>2402</v>
-      </c>
-      <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2408,63 +2430,63 @@
       <c r="G30">
         <v>2401</v>
       </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>1002</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="8">
+        <v>2402</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
         <v>22</v>
       </c>
-      <c r="K30">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2401</v>
+      </c>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>1002</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31">
         <v>3</v>
       </c>
-      <c r="L30">
+      <c r="M31">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="9">
+    <row r="32" spans="1:13">
+      <c r="A32" s="9">
         <v>2901</v>
-      </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>1002</v>
-      </c>
-      <c r="J31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="9">
-        <v>2902</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
@@ -2473,10 +2495,10 @@
         <v>86</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2484,19 +2506,57 @@
       <c r="G32" t="s">
         <v>87</v>
       </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>1002</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="9">
+        <v>2902</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
         <v>22</v>
       </c>
-      <c r="K32">
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1002</v>
+      </c>
+      <c r="K33" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="L32">
+      <c r="M33">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -1299,9 +1299,9 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2253,7 +2253,7 @@
         <v>2</v>
       </c>
       <c r="M25">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2276,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2191</v>
+        <v>2001</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -116,7 +116,7 @@
     <t>Quick Fire</t>
   </si>
   <si>
-    <t>AP Cost of Inferno - 1, but damage - 2.</t>
+    <t>AP Cost of Inferno - 1, but damage - 3.</t>
   </si>
   <si>
     <t>Passive</t>
@@ -1299,9 +1299,9 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -1301,7 +1301,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A8" sqref="A8"/>
+      <selection pane="topRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1580,7 +1580,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1659,7 +1659,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2232,7 +2232,7 @@
         <v>34</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2270,13 +2270,13 @@
         <v>22</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="10220" windowHeight="6370"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -109,14 +109,14 @@
     <t>Inferno</t>
   </si>
   <si>
-    <t>Target all units and deal 1.35ATK+1 damage,
+    <t>Target all units and deal ATK+2 damage,
 with one level burning.</t>
   </si>
   <si>
     <t>Quick Fire</t>
   </si>
   <si>
-    <t>AP Cost of Inferno - 1, but damage - 3.</t>
+    <t>AP Cost of Inferno - 1, but damage - 4.</t>
   </si>
   <si>
     <t>Passive</t>
@@ -185,7 +185,7 @@
     <t>Time Expand</t>
   </si>
   <si>
-    <t>Double all debuff counter.</t>
+    <t>Double the level of all debuff for foe or buff for allies</t>
   </si>
   <si>
     <t>1102;1202</t>
@@ -1298,10 +1298,10 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G26" sqref="G26"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2025,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:13">
@@ -2063,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:13">

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10220" windowHeight="6370"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>//Remark</t>
   </si>
@@ -125,7 +125,7 @@
     <t>Field of Scorch</t>
   </si>
   <si>
-    <t>Skill Radius of Inferno + 1,but damage - 2.</t>
+    <t>Skill Radius of Inferno + 1,but damage reduce 25%.</t>
   </si>
   <si>
     <t>Confocal</t>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>1302;1402</t>
+  </si>
+  <si>
+    <t>Final Chant</t>
+  </si>
+  <si>
+    <t>Increase skill range and AP but can't get Movement when turn starts.</t>
+  </si>
+  <si>
+    <t>1202;1302</t>
   </si>
   <si>
     <t>Strike</t>
@@ -1296,12 +1305,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2066,39 +2075,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2">
-        <v>2001</v>
+    <row r="21" ht="28" spans="1:13">
+      <c r="A21" s="9">
+        <v>1903</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
-        <v>21</v>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" s="5">
+        <v>2</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1002</v>
-      </c>
-      <c r="K21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>1001</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="5">
+        <v>4</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2106,19 +2115,19 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2127,30 +2136,30 @@
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1002</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
+      <c r="K22" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2177,21 +2186,21 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="3">
-        <v>2101</v>
+      <c r="A24" s="2">
+        <v>2031</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2200,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2208,19 +2217,19 @@
       <c r="J24">
         <v>1002</v>
       </c>
-      <c r="K24" t="s">
-        <v>68</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+      <c r="K24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3">
-        <v>2191</v>
+        <v>2101</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -2229,7 +2238,7 @@
         <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2238,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2250,15 +2259,15 @@
         <v>71</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>-4</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3">
-        <v>2102</v>
+        <v>2191</v>
       </c>
       <c r="B26" t="s">
         <v>72</v>
@@ -2267,7 +2276,7 @@
         <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2288,15 +2297,15 @@
         <v>74</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>-3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>2201</v>
+      <c r="A27" s="3">
+        <v>2102</v>
       </c>
       <c r="B27" t="s">
         <v>75</v>
@@ -2314,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2323,24 +2332,24 @@
         <v>1002</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="7">
-        <v>2301</v>
+      <c r="A28" s="6">
+        <v>2201</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2367,18 +2376,18 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="8">
-        <v>2401</v>
+      <c r="A29" s="7">
+        <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2405,21 +2414,21 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="8">
-        <v>2491</v>
+        <v>2401</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2428,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2440,24 +2449,24 @@
         <v>23</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8">
-        <v>2402</v>
+        <v>2491</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2478,33 +2487,33 @@
         <v>23</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="9">
-        <v>2901</v>
+      <c r="A32" s="8">
+        <v>2402</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" t="s">
-        <v>87</v>
+      <c r="G32">
+        <v>2401</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2516,15 +2525,15 @@
         <v>23</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="9">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B33" t="s">
         <v>88</v>
@@ -2557,6 +2566,44 @@
         <v>4</v>
       </c>
       <c r="M33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="9">
+        <v>2902</v>
+      </c>
+      <c r="B34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1002</v>
+      </c>
+      <c r="K34" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
   <si>
     <t>//Remark</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>imgIconSkill_Overtime</t>
+  </si>
+  <si>
+    <t>Curse</t>
+  </si>
+  <si>
+    <t>The target will receive Fragile every time lost HP.</t>
+  </si>
+  <si>
+    <t>Counter</t>
   </si>
   <si>
     <t>Provoke</t>
@@ -1305,12 +1314,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2303,7 +2312,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" customHeight="1" spans="1:13">
       <c r="A27" s="3">
         <v>2102</v>
       </c>
@@ -2380,17 +2389,14 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="7">
-        <v>2301</v>
+      <c r="A29" s="6">
+        <v>2291</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
       </c>
-      <c r="C29" t="s">
-        <v>81</v>
-      </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2399,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2001</v>
+        <v>2201</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2411,21 +2417,21 @@
         <v>23</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="8">
-        <v>2401</v>
+      <c r="A30" s="6">
+        <v>2202</v>
       </c>
       <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" t="s">
         <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2437,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2001</v>
+        <v>2201</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2449,24 +2455,24 @@
         <v>23</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="8">
-        <v>2491</v>
+      <c r="A31" s="7">
+        <v>2301</v>
       </c>
       <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
         <v>84</v>
       </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2475,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2487,21 +2493,21 @@
         <v>23</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
         <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2513,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2525,33 +2531,33 @@
         <v>23</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="9">
-        <v>2901</v>
+      <c r="A33" s="8">
+        <v>2491</v>
       </c>
       <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" t="s">
         <v>88</v>
       </c>
-      <c r="C33" t="s">
-        <v>89</v>
-      </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
-        <v>90</v>
+      <c r="G33">
+        <v>2401</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2563,33 +2569,33 @@
         <v>23</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="9">
-        <v>2902</v>
+      <c r="A34" s="8">
+        <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34" t="s">
-        <v>93</v>
+      <c r="G34">
+        <v>2401</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2601,9 +2607,85 @@
         <v>23</v>
       </c>
       <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="9">
+        <v>2901</v>
+      </c>
+      <c r="B35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>1002</v>
+      </c>
+      <c r="K35" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35">
         <v>4</v>
       </c>
-      <c r="M34">
+      <c r="M35">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="9">
+        <v>2902</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1002</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
   <si>
     <t>//Remark</t>
   </si>
@@ -140,7 +140,7 @@
     <t>Deal damage according to burning.</t>
   </si>
   <si>
-    <t>Time Transfer</t>
+    <t>Chronal Shift</t>
   </si>
   <si>
     <t>Dodge next attack.</t>
@@ -273,6 +273,12 @@
     <t>Heal one character according to HP.</t>
   </si>
   <si>
+    <t>Fish Strike</t>
+  </si>
+  <si>
+    <t>Deal damage according to DEF, next strike will recover HP according to damage.</t>
+  </si>
+  <si>
     <t>Rush Hour</t>
   </si>
   <si>
@@ -297,7 +303,7 @@
     <t>HP won't become 0.</t>
   </si>
   <si>
-    <t>2102;2201</t>
+    <t>2102;2202</t>
   </si>
   <si>
     <t>Super Worker</t>
@@ -306,7 +312,16 @@
     <t>Increase ATK,DEF,RES,max Movement by 1.</t>
   </si>
   <si>
-    <t>2301;2402</t>
+    <t>2302;2402</t>
+  </si>
+  <si>
+    <t>Self Hurt Strike</t>
+  </si>
+  <si>
+    <t>Cost HP to deal damage, the damage will be equal to lost HP.</t>
+  </si>
+  <si>
+    <t>2202;2302</t>
   </si>
 </sst>
 </file>
@@ -1314,12 +1329,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N29" sqref="N29"/>
+      <selection pane="topRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2500,8 +2515,8 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="8">
-        <v>2401</v>
+      <c r="A32" s="7">
+        <v>2302</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
@@ -2519,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2001</v>
+        <v>2301</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2531,15 +2546,15 @@
         <v>23</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8">
-        <v>2491</v>
+        <v>2401</v>
       </c>
       <c r="B33" t="s">
         <v>87</v>
@@ -2548,7 +2563,7 @@
         <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2557,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2569,15 +2584,15 @@
         <v>23</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8">
-        <v>2402</v>
+        <v>2491</v>
       </c>
       <c r="B34" t="s">
         <v>89</v>
@@ -2586,7 +2601,7 @@
         <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2607,15 +2622,15 @@
         <v>23</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="9">
-        <v>2901</v>
+      <c r="A35" s="8">
+        <v>2402</v>
       </c>
       <c r="B35" t="s">
         <v>91</v>
@@ -2627,13 +2642,13 @@
         <v>22</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
-        <v>93</v>
+      <c r="G35">
+        <v>2401</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2645,21 +2660,21 @@
         <v>23</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="9">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
         <v>94</v>
-      </c>
-      <c r="C36" t="s">
-        <v>95</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2671,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2686,7 +2701,83 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="9">
+        <v>2902</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1002</v>
+      </c>
+      <c r="K37" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="9">
+        <v>2903</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1002</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -1331,10 +1331,10 @@
   <sheetPr/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G5" sqref="G5"/>
+      <selection pane="topRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1575,7 +1575,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1885,7 +1885,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         <v>22</v>
       </c>
       <c r="E18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>22</v>
       </c>
       <c r="E19" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="E20" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>22</v>
       </c>
       <c r="E21" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>22</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2379,7 +2379,7 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>22</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>22</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>22</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>22</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2680,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>22</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>22</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="16930" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>//Remark</t>
   </si>
@@ -79,7 +79,7 @@
     <t>Elemental Ball</t>
   </si>
   <si>
-    <t>Normal Attack,deal ATK damage.</t>
+    <t>Normal Attack,deal ATK damage to single foe.</t>
   </si>
   <si>
     <t>Active</t>
@@ -149,37 +149,32 @@
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
-    <t>Gravity magic attack that reduce movement.</t>
+    <t>Magic attack that reduce movement.
+Deal damage according to difference of movement between source and target.</t>
   </si>
   <si>
     <t>Stream</t>
   </si>
   <si>
-    <t>Water magic attack that can heal plant.</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>Remove 1 debuff.</t>
-  </si>
-  <si>
-    <t>Holy Thunder</t>
-  </si>
-  <si>
-    <t>Electricity Attack. Water tile can transmit damage.</t>
-  </si>
-  <si>
-    <t>Dizzy Light</t>
-  </si>
-  <si>
-    <t>Holy Thunder will give target debuff named Dizzy.</t>
+    <t>Magic attack that can heal plants in the range.</t>
+  </si>
+  <si>
+    <t>Time Mending</t>
+  </si>
+  <si>
+    <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>Magic attack that can be transmitted damage by water tile.</t>
   </si>
   <si>
     <t>Teleport</t>
   </si>
   <si>
-    <t>Change one unit position.</t>
+    <t>Change one character or plant position.</t>
   </si>
   <si>
     <t>Time Expand</t>
@@ -213,6 +208,9 @@
     <t>Strike</t>
   </si>
   <si>
+    <t>Normal Attack,deal ATK damage.</t>
+  </si>
+  <si>
     <t>imgIconSkill_BFStrike</t>
   </si>
   <si>
@@ -261,6 +259,9 @@
     <t>Counter</t>
   </si>
   <si>
+    <t>Deal damage to the unit that attack Bond.</t>
+  </si>
+  <si>
     <t>Provoke</t>
   </si>
   <si>
@@ -315,7 +316,7 @@
     <t>2302;2402</t>
   </si>
   <si>
-    <t>Self Hurt Strike</t>
+    <t>Finish Work</t>
   </si>
   <si>
     <t>Cost HP to deal damage, the damage will be equal to lost HP.</t>
@@ -979,7 +980,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1000,6 +1001,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1329,12 +1333,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F33" sqref="F33"/>
+      <selection pane="topRight" activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1795,14 +1799,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" ht="42" spans="1:13">
       <c r="A13" s="6">
         <v>1202</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
@@ -1834,7 +1838,7 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>1301</v>
       </c>
       <c r="B14" t="s">
@@ -1872,7 +1876,7 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>1302</v>
       </c>
       <c r="B15" t="s">
@@ -1910,7 +1914,7 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>1401</v>
       </c>
       <c r="B16" t="s">
@@ -1948,8 +1952,8 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="8">
-        <v>1491</v>
+      <c r="A17" s="9">
+        <v>1402</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
@@ -1958,10 +1962,10 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1979,15 +1983,15 @@
         <v>23</v>
       </c>
       <c r="L17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="8">
-        <v>1402</v>
+      <c r="A18" s="10">
+        <v>1901</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
@@ -1999,13 +2003,13 @@
         <v>22</v>
       </c>
       <c r="E18" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>1401</v>
+      <c r="G18" t="s">
+        <v>55</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2017,21 +2021,21 @@
         <v>23</v>
       </c>
       <c r="L18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="9">
-        <v>1901</v>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:13">
+      <c r="A19" s="10">
+        <v>1902</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
         <v>56</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2043,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2058,18 +2062,18 @@
         <v>4</v>
       </c>
       <c r="M19">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:13">
-      <c r="A20" s="9">
-        <v>1902</v>
+      <c r="A20" s="10">
+        <v>1903</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2081,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2096,42 +2100,42 @@
         <v>4</v>
       </c>
       <c r="M20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="28" spans="1:13">
-      <c r="A21" s="9">
-        <v>1903</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2">
+        <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="4" t="s">
         <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="5">
-        <v>3</v>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>63</v>
-      </c>
-      <c r="I21" s="5" t="b">
-        <v>0</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1001</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="5">
-        <v>4</v>
+        <v>1002</v>
+      </c>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2139,19 +2143,19 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>2001</v>
+        <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -2160,30 +2164,30 @@
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1002</v>
       </c>
-      <c r="K22" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22">
+      <c r="K22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="5">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>2021</v>
+        <v>2031</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2210,30 +2214,30 @@
         <v>0</v>
       </c>
       <c r="M23">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
+        <v>2101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2">
-        <v>2031</v>
-      </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2241,37 +2245,37 @@
       <c r="J24">
         <v>1002</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3">
+        <v>2191</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>2101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>2001</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2280,30 +2284,30 @@
         <v>1002</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:13">
       <c r="A26" s="3">
-        <v>2191</v>
+        <v>2102</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2318,24 +2322,24 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:13">
-      <c r="A27" s="3">
-        <v>2102</v>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
+        <v>2201</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2347,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2356,36 +2360,36 @@
         <v>1002</v>
       </c>
       <c r="K27" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6">
+        <v>2291</v>
+      </c>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>2201</v>
-      </c>
-      <c r="B28" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>2001</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2397,24 +2401,27 @@
         <v>23</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6">
-        <v>2291</v>
+        <v>2202</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2432,21 +2439,21 @@
         <v>23</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M29">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>2202</v>
+      <c r="A30" s="8">
+        <v>2301</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2458,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2201</v>
+        <v>2001</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2470,21 +2477,21 @@
         <v>23</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="7">
-        <v>2301</v>
+      <c r="A31" s="8">
+        <v>2302</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2496,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2001</v>
+        <v>2301</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2508,21 +2515,21 @@
         <v>23</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="7">
-        <v>2302</v>
+      <c r="A32" s="9">
+        <v>2401</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2534,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2301</v>
+        <v>2001</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2546,33 +2553,33 @@
         <v>23</v>
       </c>
       <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
         <v>3</v>
       </c>
-      <c r="M32">
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="9">
+        <v>2491</v>
+      </c>
+      <c r="B33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="8">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>2401</v>
-      </c>
-      <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>2001</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2584,27 +2591,27 @@
         <v>23</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="8">
-        <v>2491</v>
+      <c r="A34" s="9">
+        <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2622,33 +2629,33 @@
         <v>23</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="8">
-        <v>2402</v>
+      <c r="A35" s="10">
+        <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>2401</v>
+      <c r="G35" t="s">
+        <v>95</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2660,21 +2667,21 @@
         <v>23</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="9">
-        <v>2901</v>
+      <c r="A36" s="10">
+        <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2686,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2701,18 +2708,18 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="9">
-        <v>2902</v>
+      <c r="A37" s="10">
+        <v>2903</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2724,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2739,44 +2746,6 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="9">
-        <v>2903</v>
-      </c>
-      <c r="B38" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>101</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1002</v>
-      </c>
-      <c r="K38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
-      <c r="M38">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16930" windowHeight="11480"/>
+    <workbookView windowWidth="16750" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
   <si>
     <t>//Remark</t>
   </si>
@@ -146,6 +146,9 @@
     <t>Dodge next attack.</t>
   </si>
   <si>
+    <t>imgIconSkill_ChronalShift</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
@@ -153,6 +156,9 @@
 Deal damage according to difference of movement between source and target.</t>
   </si>
   <si>
+    <t>imgIconSkill_Gravity</t>
+  </si>
+  <si>
     <t>Stream</t>
   </si>
   <si>
@@ -268,16 +274,22 @@
     <t>Attract enemies' attack.</t>
   </si>
   <si>
-    <t>Self Heal</t>
+    <t>Take a Nap</t>
   </si>
   <si>
     <t>Heal one character according to HP.</t>
   </si>
   <si>
-    <t>Fish Strike</t>
+    <t>imgIconSkill_Rest</t>
+  </si>
+  <si>
+    <t>Fish Drat</t>
   </si>
   <si>
     <t>Deal damage according to DEF, next strike will recover HP according to damage.</t>
+  </si>
+  <si>
+    <t>imgIconSkill_FishDrat</t>
   </si>
   <si>
     <t>Rush Hour</t>
@@ -980,7 +992,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1001,9 +1013,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1335,10 +1344,10 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B37" sqref="B37"/>
+      <selection pane="topRight" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1351,7 +1360,7 @@
     <col min="8" max="8" width="13.5454545454545" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="10" max="10" width="12.4545454545455" customWidth="1"/>
-    <col min="11" max="11" width="22.3636363636364" customWidth="1"/>
+    <col min="11" max="11" width="25.7272727272727" customWidth="1"/>
     <col min="14" max="14" width="47.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1790,7 +1799,7 @@
         <v>1001</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="L12" s="5">
         <v>1</v>
@@ -1804,10 +1813,10 @@
         <v>1202</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="7" t="s">
         <v>44</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1828,7 +1837,7 @@
         <v>1001</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="L13" s="5">
         <v>3</v>
@@ -1838,14 +1847,14 @@
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>1301</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1876,14 +1885,14 @@
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>1302</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1914,14 +1923,14 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1952,14 +1961,14 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1990,14 +1999,14 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>1901</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2009,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2028,14 +2037,14 @@
       </c>
     </row>
     <row r="19" ht="28" spans="1:13">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>1902</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2047,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2066,14 +2075,14 @@
       </c>
     </row>
     <row r="20" ht="28" spans="1:13">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>1903</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2085,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2108,10 +2117,10 @@
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2132,7 +2141,7 @@
         <v>1002</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2146,7 +2155,7 @@
         <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -2184,10 +2193,10 @@
         <v>2031</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2222,10 +2231,10 @@
         <v>2101</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2246,7 +2255,7 @@
         <v>1002</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2260,10 +2269,10 @@
         <v>2191</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -2284,7 +2293,7 @@
         <v>1002</v>
       </c>
       <c r="K25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2298,10 +2307,10 @@
         <v>2102</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -2322,7 +2331,7 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2336,10 +2345,10 @@
         <v>2201</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2374,10 +2383,10 @@
         <v>2291</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -2412,10 +2421,10 @@
         <v>2202</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2446,14 +2455,14 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <v>2301</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2474,7 +2483,7 @@
         <v>1002</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2484,14 +2493,14 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <v>2302</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2512,7 +2521,7 @@
         <v>1002</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2522,14 +2531,14 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>2401</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2560,14 +2569,14 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>2491</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -2598,14 +2607,14 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2636,14 +2645,14 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="10">
+      <c r="A35" s="9">
         <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2655,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2674,14 +2683,14 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="10">
+      <c r="A36" s="9">
         <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2693,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2712,14 +2721,14 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="10">
+      <c r="A37" s="9">
         <v>2903</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2731,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16750" windowHeight="11480"/>
+    <workbookView windowWidth="15640" windowHeight="11480"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>//Remark</t>
   </si>
@@ -165,6 +165,9 @@
     <t>Magic attack that can heal plants in the range.</t>
   </si>
   <si>
+    <t>imgIconSkill_Stream</t>
+  </si>
+  <si>
     <t>Time Mending</t>
   </si>
   <si>
@@ -175,6 +178,9 @@
   </si>
   <si>
     <t>Magic attack that can be transmitted damage by water tile.</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Lightning</t>
   </si>
   <si>
     <t>Teleport</t>
@@ -1344,10 +1350,10 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K30" sqref="K30"/>
+      <selection pane="topRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1875,7 +1881,7 @@
         <v>1001</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="L14" s="5">
         <v>1</v>
@@ -1889,10 +1895,10 @@
         <v>1302</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1927,10 +1933,10 @@
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1951,7 +1957,7 @@
         <v>1001</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="L16" s="5">
         <v>1</v>
@@ -1965,10 +1971,10 @@
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2003,10 +2009,10 @@
         <v>1901</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2018,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2041,10 +2047,10 @@
         <v>1902</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2056,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2079,10 +2085,10 @@
         <v>1903</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2094,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2117,10 +2123,10 @@
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2141,7 +2147,7 @@
         <v>1002</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2155,7 +2161,7 @@
         <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -2193,10 +2199,10 @@
         <v>2031</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2231,10 +2237,10 @@
         <v>2101</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2255,7 +2261,7 @@
         <v>1002</v>
       </c>
       <c r="K24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2269,10 +2275,10 @@
         <v>2191</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
@@ -2293,7 +2299,7 @@
         <v>1002</v>
       </c>
       <c r="K25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2307,10 +2313,10 @@
         <v>2102</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -2331,7 +2337,7 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2345,10 +2351,10 @@
         <v>2201</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2383,10 +2389,10 @@
         <v>2291</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
         <v>34</v>
@@ -2421,10 +2427,10 @@
         <v>2202</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2459,10 +2465,10 @@
         <v>2301</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2483,7 +2489,7 @@
         <v>1002</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2497,10 +2503,10 @@
         <v>2302</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2521,7 +2527,7 @@
         <v>1002</v>
       </c>
       <c r="K31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2535,10 +2541,10 @@
         <v>2401</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2573,10 +2579,10 @@
         <v>2491</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
         <v>34</v>
@@ -2611,10 +2617,10 @@
         <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2649,10 +2655,10 @@
         <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2664,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2687,10 +2693,10 @@
         <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2702,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2725,10 +2731,10 @@
         <v>2903</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2740,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15640" windowHeight="11480"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
     <t>Increase RES by 1 point.</t>
   </si>
   <si>
-    <t>Inferno</t>
+    <t>Fire Ball</t>
   </si>
   <si>
     <t>Target all units and deal ATK+2 damage,
@@ -116,7 +116,7 @@
     <t>Quick Fire</t>
   </si>
   <si>
-    <t>AP Cost of Inferno - 1, but damage - 4.</t>
+    <t>AP Cost of Fire Ball - 1, but damage - 4.</t>
   </si>
   <si>
     <t>Passive</t>
@@ -125,13 +125,13 @@
     <t>Field of Scorch</t>
   </si>
   <si>
-    <t>Skill Radius of Inferno + 1,but damage reduce 25%.</t>
+    <t>Skill Radius of Fire Ball + 1,but damage reduce 25%.</t>
   </si>
   <si>
     <t>Confocal</t>
   </si>
   <si>
-    <t>Inferno will cost all AP, each extra AP deal more damage.</t>
+    <t>Fire Ball will cost all AP, each extra AP deal more damage.</t>
   </si>
   <si>
     <t>Boom!</t>
@@ -1350,16 +1350,16 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K16" sqref="K16"/>
+      <selection pane="topRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="58" customWidth="1"/>
+    <col min="3" max="3" width="61.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="7" width="17.5454545454545" customWidth="1"/>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
   <si>
     <t>//Remark</t>
   </si>
@@ -113,7 +113,10 @@
 with one level burning.</t>
   </si>
   <si>
-    <t>Quick Fire</t>
+    <t>imgIconSkill_FireBall</t>
+  </si>
+  <si>
+    <t>Quick Cast</t>
   </si>
   <si>
     <t>AP Cost of Fire Ball - 1, but damage - 4.</t>
@@ -122,22 +125,34 @@
     <t>Passive</t>
   </si>
   <si>
-    <t>Field of Scorch</t>
+    <t>imgIconSkill_FireCostDown</t>
+  </si>
+  <si>
+    <t>Inferno</t>
   </si>
   <si>
     <t>Skill Radius of Fire Ball + 1,but damage reduce 25%.</t>
   </si>
   <si>
-    <t>Confocal</t>
+    <t>imgIconSkill_FireRadius</t>
+  </si>
+  <si>
+    <t>Focus</t>
   </si>
   <si>
     <t>Fire Ball will cost all AP, each extra AP deal more damage.</t>
   </si>
   <si>
+    <t>imgIconSkill_FireCostUp</t>
+  </si>
+  <si>
     <t>Boom!</t>
   </si>
   <si>
     <t>Deal damage according to burning.</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Boom</t>
   </si>
   <si>
     <t>Chronal Shift</t>
@@ -1351,9 +1366,9 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C13" sqref="C13"/>
+      <selection pane="topRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1609,7 +1624,7 @@
         <v>1001</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
@@ -1623,13 +1638,13 @@
         <v>1191</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1650,7 +1665,7 @@
         <v>1001</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="L8" s="5">
         <v>2</v>
@@ -1664,13 +1679,13 @@
         <v>1192</v>
       </c>
       <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1688,7 +1703,7 @@
         <v>1001</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="L9" s="5">
         <v>2</v>
@@ -1702,13 +1717,13 @@
         <v>1193</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1729,7 +1744,7 @@
         <v>1001</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="L10" s="5">
         <v>1</v>
@@ -1743,10 +1758,10 @@
         <v>1102</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1767,7 +1782,7 @@
         <v>1001</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="L11" s="5">
         <v>3</v>
@@ -1781,10 +1796,10 @@
         <v>1201</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1805,7 +1820,7 @@
         <v>1001</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="L12" s="5">
         <v>1</v>
@@ -1819,10 +1834,10 @@
         <v>1202</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1843,7 +1858,7 @@
         <v>1001</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="L13" s="5">
         <v>3</v>
@@ -1857,10 +1872,10 @@
         <v>1301</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1881,7 +1896,7 @@
         <v>1001</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="L14" s="5">
         <v>1</v>
@@ -1895,10 +1910,10 @@
         <v>1302</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1933,10 +1948,10 @@
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1957,7 +1972,7 @@
         <v>1001</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L16" s="5">
         <v>1</v>
@@ -1971,10 +1986,10 @@
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2009,10 +2024,10 @@
         <v>1901</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2024,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2047,10 +2062,10 @@
         <v>1902</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2062,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2085,10 +2100,10 @@
         <v>1903</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2100,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2123,10 +2138,10 @@
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2147,7 +2162,7 @@
         <v>1002</v>
       </c>
       <c r="K21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2161,7 +2176,7 @@
         <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -2199,10 +2214,10 @@
         <v>2031</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2237,10 +2252,10 @@
         <v>2101</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2261,7 +2276,7 @@
         <v>1002</v>
       </c>
       <c r="K24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2275,13 +2290,13 @@
         <v>2191</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2299,7 +2314,7 @@
         <v>1002</v>
       </c>
       <c r="K25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2313,10 +2328,10 @@
         <v>2102</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -2337,7 +2352,7 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2351,10 +2366,10 @@
         <v>2201</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2389,13 +2404,13 @@
         <v>2291</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2427,10 +2442,10 @@
         <v>2202</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2465,10 +2480,10 @@
         <v>2301</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2489,7 +2504,7 @@
         <v>1002</v>
       </c>
       <c r="K30" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2503,10 +2518,10 @@
         <v>2302</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2527,7 +2542,7 @@
         <v>1002</v>
       </c>
       <c r="K31" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2541,10 +2556,10 @@
         <v>2401</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2579,13 +2594,13 @@
         <v>2491</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2617,10 +2632,10 @@
         <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2655,10 +2670,10 @@
         <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2670,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2693,10 +2708,10 @@
         <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2708,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2731,10 +2746,10 @@
         <v>2903</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2746,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
   <si>
     <t>//Remark</t>
   </si>
@@ -174,21 +174,24 @@
     <t>imgIconSkill_Gravity</t>
   </si>
   <si>
-    <t>Stream</t>
+    <t>Fourtain</t>
   </si>
   <si>
     <t>Magic attack that can heal plants in the range.</t>
   </si>
   <si>
-    <t>imgIconSkill_Stream</t>
-  </si>
-  <si>
-    <t>Time Mending</t>
+    <t>imgIconSkill_Fourtain</t>
+  </si>
+  <si>
+    <t>Clean</t>
   </si>
   <si>
     <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
   </si>
   <si>
+    <t>imgIconSkill_Clean</t>
+  </si>
+  <si>
     <t>Lightning Bolt</t>
   </si>
   <si>
@@ -202,6 +205,9 @@
   </si>
   <si>
     <t>Change one character or plant position.</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Teleport</t>
   </si>
   <si>
     <t>Time Expand</t>
@@ -1368,7 +1374,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1934,7 +1940,7 @@
         <v>1001</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="L15" s="5">
         <v>3</v>
@@ -1948,10 +1954,10 @@
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1972,7 +1978,7 @@
         <v>1001</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L16" s="5">
         <v>1</v>
@@ -1986,10 +1992,10 @@
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2010,7 +2016,7 @@
         <v>1001</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="L17" s="5">
         <v>3</v>
@@ -2024,10 +2030,10 @@
         <v>1901</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2039,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2062,10 +2068,10 @@
         <v>1902</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2077,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2100,10 +2106,10 @@
         <v>1903</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2115,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2138,10 +2144,10 @@
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2162,7 +2168,7 @@
         <v>1002</v>
       </c>
       <c r="K21" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2176,7 +2182,7 @@
         <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -2214,10 +2220,10 @@
         <v>2031</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2252,10 +2258,10 @@
         <v>2101</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2276,7 +2282,7 @@
         <v>1002</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2290,10 +2296,10 @@
         <v>2191</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -2314,7 +2320,7 @@
         <v>1002</v>
       </c>
       <c r="K25" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2328,10 +2334,10 @@
         <v>2102</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -2352,7 +2358,7 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2366,10 +2372,10 @@
         <v>2201</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2404,10 +2410,10 @@
         <v>2291</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -2442,10 +2448,10 @@
         <v>2202</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2480,10 +2486,10 @@
         <v>2301</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2504,7 +2510,7 @@
         <v>1002</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2518,10 +2524,10 @@
         <v>2302</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2542,7 +2548,7 @@
         <v>1002</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2556,10 +2562,10 @@
         <v>2401</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2594,10 +2600,10 @@
         <v>2491</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -2632,10 +2638,10 @@
         <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2670,10 +2676,10 @@
         <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2685,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2708,10 +2714,10 @@
         <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2723,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2746,10 +2752,10 @@
         <v>2903</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2761,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
   <si>
     <t>//Remark</t>
   </si>
@@ -219,6 +219,9 @@
     <t>1102;1202</t>
   </si>
   <si>
+    <t>imgIconSkill_TimeExpand</t>
+  </si>
+  <si>
     <t>Infinity</t>
   </si>
   <si>
@@ -229,13 +232,19 @@
     <t>1302;1402</t>
   </si>
   <si>
-    <t>Final Chant</t>
+    <t>imgIconSkill_Infinity</t>
+  </si>
+  <si>
+    <t>Rabbit Chant</t>
   </si>
   <si>
     <t>Increase skill range and AP but can't get Movement when turn starts.</t>
   </si>
   <si>
     <t>1202;1302</t>
+  </si>
+  <si>
+    <t>imgIconSkill_MagicCircle</t>
   </si>
   <si>
     <t>Strike</t>
@@ -1374,7 +1383,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K15" sqref="K15"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2054,7 +2063,7 @@
         <v>1001</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="L18" s="5">
         <v>4</v>
@@ -2068,10 +2077,10 @@
         <v>1902</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2083,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2092,7 +2101,7 @@
         <v>1001</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="L19" s="5">
         <v>4</v>
@@ -2106,10 +2115,10 @@
         <v>1903</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2121,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2130,7 +2139,7 @@
         <v>1001</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="L20" s="5">
         <v>4</v>
@@ -2144,10 +2153,10 @@
         <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2168,7 +2177,7 @@
         <v>1002</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2182,7 +2191,7 @@
         <v>2021</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -2220,10 +2229,10 @@
         <v>2031</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2258,10 +2267,10 @@
         <v>2101</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
         <v>22</v>
@@ -2282,7 +2291,7 @@
         <v>1002</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2296,10 +2305,10 @@
         <v>2191</v>
       </c>
       <c r="B25" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -2320,7 +2329,7 @@
         <v>1002</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -2334,10 +2343,10 @@
         <v>2102</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
         <v>22</v>
@@ -2358,7 +2367,7 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L26">
         <v>3</v>
@@ -2372,10 +2381,10 @@
         <v>2201</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2410,10 +2419,10 @@
         <v>2291</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
@@ -2448,10 +2457,10 @@
         <v>2202</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2486,10 +2495,10 @@
         <v>2301</v>
       </c>
       <c r="B30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2510,7 +2519,7 @@
         <v>1002</v>
       </c>
       <c r="K30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -2524,10 +2533,10 @@
         <v>2302</v>
       </c>
       <c r="B31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2548,7 +2557,7 @@
         <v>1002</v>
       </c>
       <c r="K31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L31">
         <v>3</v>
@@ -2562,10 +2571,10 @@
         <v>2401</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2600,10 +2609,10 @@
         <v>2491</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -2638,10 +2647,10 @@
         <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2676,10 +2685,10 @@
         <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2691,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2714,10 +2723,10 @@
         <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2729,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2752,10 +2761,10 @@
         <v>2903</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2767,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -155,15 +155,6 @@
     <t>imgIconSkill_Boom</t>
   </si>
   <si>
-    <t>Chronal Shift</t>
-  </si>
-  <si>
-    <t>Dodge next attack.</t>
-  </si>
-  <si>
-    <t>imgIconSkill_ChronalShift</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
@@ -174,6 +165,15 @@
     <t>imgIconSkill_Gravity</t>
   </si>
   <si>
+    <t>Chronal Shift</t>
+  </si>
+  <si>
+    <t>Dodge next attack.</t>
+  </si>
+  <si>
+    <t>imgIconSkill_ChronalShift</t>
+  </si>
+  <si>
     <t>Fourtain</t>
   </si>
   <si>
@@ -216,7 +216,7 @@
     <t>Double the level of all debuff for foe or buff for allies</t>
   </si>
   <si>
-    <t>1102;1202</t>
+    <t>1102;1201</t>
   </si>
   <si>
     <t>imgIconSkill_TimeExpand</t>
@@ -241,7 +241,7 @@
     <t>Increase skill range and AP but can't get Movement when turn starts.</t>
   </si>
   <si>
-    <t>1202;1302</t>
+    <t>1201;1302</t>
   </si>
   <si>
     <t>imgIconSkill_MagicCircle</t>
@@ -1380,10 +1380,10 @@
   <sheetPr/>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1806,14 +1806,14 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" ht="42" spans="1:13">
       <c r="A12" s="6">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D12" t="s">
@@ -1844,14 +1844,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" ht="42" spans="1:13">
+    <row r="13" spans="1:13">
       <c r="A13" s="6">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="I13" s="5" t="b">
         <v>0</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -109,7 +109,7 @@
     <t>Fire Ball</t>
   </si>
   <si>
-    <t>Target all units and deal ATK+2 damage,
+    <t>Deal ATK+2 damage to all unit in skill radius,
 with one level burning.</t>
   </si>
   <si>
@@ -1383,7 +1383,7 @@
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
   <si>
     <t>//Remark</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>imgIconSkill_Clean</t>
+  </si>
+  <si>
+    <t>Drown</t>
+  </si>
+  <si>
+    <t>Fourtain will turn soil tile into water tile</t>
   </si>
   <si>
     <t>Lightning Bolt</t>
@@ -1378,12 +1384,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1959,8 +1965,8 @@
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="8">
-        <v>1401</v>
+      <c r="A16" s="7">
+        <v>1391</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -1969,16 +1975,16 @@
         <v>59</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1001</v>
+        <v>1301</v>
       </c>
       <c r="I16" s="5" t="b">
         <v>0</v>
@@ -1987,24 +1993,24 @@
         <v>1001</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="L16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
         <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2016,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1401</v>
+        <v>1001</v>
       </c>
       <c r="I17" s="5" t="b">
         <v>0</v>
@@ -2025,36 +2031,36 @@
         <v>1001</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9">
-        <v>1901</v>
+      <c r="A18" s="8">
+        <v>1402</v>
       </c>
       <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" t="s">
-        <v>65</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>66</v>
+      <c r="G18">
+        <v>1401</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2063,24 +2069,24 @@
         <v>1001</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="5">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="9">
+        <v>1901</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>67</v>
-      </c>
-      <c r="L18" s="5">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19" ht="28" spans="1:13">
-      <c r="A19" s="9">
-        <v>1902</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2092,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2101,24 +2107,24 @@
         <v>1001</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L19" s="5">
         <v>4</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:13">
       <c r="A20" s="9">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2130,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2139,48 +2145,48 @@
         <v>1001</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L20" s="5">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2">
-        <v>2001</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:13">
+      <c r="A21" s="9">
+        <v>1903</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" s="5">
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+      <c r="G21" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1002</v>
-      </c>
-      <c r="K21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>1001</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L21" s="5">
+        <v>4</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -2188,51 +2194,51 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="2">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="b">
         <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
       </c>
       <c r="J22">
         <v>1002</v>
       </c>
-      <c r="K22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="5">
+      <c r="K22" t="s">
+        <v>80</v>
+      </c>
+      <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
         <v>26</v>
@@ -2259,12 +2265,12 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="3">
-        <v>2101</v>
+      <c r="A24" s="2">
+        <v>2031</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -2273,16 +2279,16 @@
         <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2290,37 +2296,37 @@
       <c r="J24">
         <v>1002</v>
       </c>
-      <c r="K24" t="s">
-        <v>84</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
+      <c r="K24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3">
-        <v>2191</v>
+        <v>2101</v>
       </c>
       <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2329,30 +2335,30 @@
         <v>1002</v>
       </c>
       <c r="K25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3">
+        <v>2191</v>
+      </c>
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:13">
-      <c r="A26" s="3">
-        <v>2102</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2367,24 +2373,24 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:13">
+      <c r="A27" s="3">
+        <v>2102</v>
+      </c>
+      <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>2201</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>91</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
       </c>
       <c r="D27" t="s">
         <v>22</v>
@@ -2396,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2405,18 +2411,18 @@
         <v>1002</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="6">
-        <v>2291</v>
+        <v>2201</v>
       </c>
       <c r="B28" t="s">
         <v>93</v>
@@ -2425,16 +2431,16 @@
         <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2201</v>
+        <v>2001</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2446,15 +2452,15 @@
         <v>23</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6">
-        <v>2202</v>
+        <v>2291</v>
       </c>
       <c r="B29" t="s">
         <v>95</v>
@@ -2463,10 +2469,10 @@
         <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2484,15 +2490,15 @@
         <v>23</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="7">
-        <v>2301</v>
+      <c r="A30" s="6">
+        <v>2202</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -2510,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2001</v>
+        <v>2201</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2519,24 +2525,24 @@
         <v>1002</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="7">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2548,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2301</v>
+        <v>2001</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2557,24 +2563,24 @@
         <v>1002</v>
       </c>
       <c r="K31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="8">
-        <v>2401</v>
+      <c r="A32" s="7">
+        <v>2302</v>
       </c>
       <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
         <v>103</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2586,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2001</v>
+        <v>2301</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2595,18 +2601,18 @@
         <v>1002</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
         <v>1</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="8">
-        <v>2491</v>
+        <v>2401</v>
       </c>
       <c r="B33" t="s">
         <v>105</v>
@@ -2615,16 +2621,16 @@
         <v>106</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2636,15 +2642,15 @@
         <v>23</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8">
-        <v>2402</v>
+        <v>2491</v>
       </c>
       <c r="B34" t="s">
         <v>107</v>
@@ -2653,10 +2659,10 @@
         <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2674,15 +2680,15 @@
         <v>23</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="9">
-        <v>2901</v>
+      <c r="A35" s="8">
+        <v>2402</v>
       </c>
       <c r="B35" t="s">
         <v>109</v>
@@ -2694,13 +2700,13 @@
         <v>22</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35" t="s">
-        <v>111</v>
+      <c r="G35">
+        <v>2401</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2712,21 +2718,21 @@
         <v>23</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M35">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="9">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
         <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>113</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2738,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2753,18 +2759,18 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="9">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
         <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>116</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2776,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2791,6 +2797,44 @@
         <v>4</v>
       </c>
       <c r="M37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="9">
+        <v>2903</v>
+      </c>
+      <c r="B38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>1002</v>
+      </c>
+      <c r="K38" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="122">
   <si>
     <t>//Remark</t>
   </si>
@@ -201,7 +201,8 @@
     <t>Lightning Bolt</t>
   </si>
   <si>
-    <t>Magic attack that can be transmitted damage by water tile.</t>
+    <t>Magic attack that can be transmitted damage by water tile.
+The damage will reduce according to distance.</t>
   </si>
   <si>
     <t>imgIconSkill_Lightning</t>
@@ -214,6 +215,12 @@
   </si>
   <si>
     <t>imgIconSkill_Teleport</t>
+  </si>
+  <si>
+    <t>High Voltage</t>
+  </si>
+  <si>
+    <t>The damage decay of Lightning Bolt will be reduced.</t>
   </si>
   <si>
     <t>Time Expand</t>
@@ -1384,12 +1391,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N18" sqref="N18"/>
+      <selection pane="topRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2002,14 +2009,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" ht="28" spans="1:13">
       <c r="A17" s="8">
         <v>1401</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
@@ -2079,8 +2086,8 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="9">
-        <v>1901</v>
+      <c r="A19" s="8">
+        <v>1491</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -2089,16 +2096,16 @@
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E19" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>68</v>
+      <c r="G19">
+        <v>1401</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2107,24 +2114,24 @@
         <v>1001</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="5">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="9">
+        <v>1901</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
         <v>69</v>
-      </c>
-      <c r="L19" s="5">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" ht="28" spans="1:13">
-      <c r="A20" s="9">
-        <v>1902</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2136,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2145,24 +2152,24 @@
         <v>1001</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L20" s="5">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:13">
       <c r="A21" s="9">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2174,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I21" s="5" t="b">
         <v>0</v>
@@ -2183,48 +2190,48 @@
         <v>1001</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L21" s="5">
         <v>4</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2">
-        <v>2001</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:13">
+      <c r="A22" s="9">
+        <v>1903</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22">
-        <v>0</v>
+      <c r="E22" s="5">
+        <v>3</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
-        <v>1</v>
+      <c r="G22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>1002</v>
-      </c>
-      <c r="K22" t="s">
-        <v>80</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
+        <v>1001</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22" s="5">
+        <v>4</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -2232,51 +2239,51 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="2">
-        <v>2021</v>
+        <v>2001</v>
       </c>
       <c r="B23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="b">
         <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="b">
-        <v>0</v>
       </c>
       <c r="J23">
         <v>1002</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="K23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2">
-        <v>2031</v>
+        <v>2021</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -2303,12 +2310,12 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="3">
-        <v>2101</v>
+      <c r="A25" s="2">
+        <v>2031</v>
       </c>
       <c r="B25" t="s">
         <v>84</v>
@@ -2317,16 +2324,16 @@
         <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2334,37 +2341,37 @@
       <c r="J25">
         <v>1002</v>
       </c>
-      <c r="K25" t="s">
-        <v>86</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
+      <c r="K25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3">
-        <v>2191</v>
+        <v>2101</v>
       </c>
       <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2373,30 +2380,30 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3">
+        <v>2191</v>
+      </c>
+      <c r="B27" t="s">
         <v>89</v>
       </c>
-      <c r="L26">
-        <v>2</v>
-      </c>
-      <c r="M26">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:13">
-      <c r="A27" s="3">
-        <v>2102</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2411,24 +2418,24 @@
         <v>1002</v>
       </c>
       <c r="K27" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:13">
+      <c r="A28" s="3">
+        <v>2102</v>
+      </c>
+      <c r="B28" t="s">
         <v>92</v>
       </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="M27">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>2201</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>94</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
@@ -2440,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2449,18 +2456,18 @@
         <v>1002</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="6">
-        <v>2291</v>
+        <v>2201</v>
       </c>
       <c r="B29" t="s">
         <v>95</v>
@@ -2469,16 +2476,16 @@
         <v>96</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2201</v>
+        <v>2001</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2490,15 +2497,15 @@
         <v>23</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="6">
-        <v>2202</v>
+        <v>2291</v>
       </c>
       <c r="B30" t="s">
         <v>97</v>
@@ -2507,10 +2514,10 @@
         <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2528,15 +2535,15 @@
         <v>23</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="7">
-        <v>2301</v>
+      <c r="A31" s="6">
+        <v>2202</v>
       </c>
       <c r="B31" t="s">
         <v>99</v>
@@ -2554,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2001</v>
+        <v>2201</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2563,24 +2570,24 @@
         <v>1002</v>
       </c>
       <c r="K31" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
         <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2592,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2301</v>
+        <v>2001</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2601,24 +2608,24 @@
         <v>1002</v>
       </c>
       <c r="K32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="8">
-        <v>2401</v>
+      <c r="A33" s="7">
+        <v>2302</v>
       </c>
       <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
         <v>105</v>
-      </c>
-      <c r="C33" t="s">
-        <v>106</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -2630,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>2001</v>
+        <v>2301</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2639,18 +2646,18 @@
         <v>1002</v>
       </c>
       <c r="K33" t="s">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
         <v>1</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="8">
-        <v>2491</v>
+        <v>2401</v>
       </c>
       <c r="B34" t="s">
         <v>107</v>
@@ -2659,16 +2666,16 @@
         <v>108</v>
       </c>
       <c r="D34" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2680,15 +2687,15 @@
         <v>23</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="8">
-        <v>2402</v>
+        <v>2491</v>
       </c>
       <c r="B35" t="s">
         <v>109</v>
@@ -2697,10 +2704,10 @@
         <v>110</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2718,15 +2725,15 @@
         <v>23</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="9">
-        <v>2901</v>
+      <c r="A36" s="8">
+        <v>2402</v>
       </c>
       <c r="B36" t="s">
         <v>111</v>
@@ -2738,13 +2745,13 @@
         <v>22</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
-      <c r="G36" t="s">
-        <v>113</v>
+      <c r="G36">
+        <v>2401</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -2756,21 +2763,21 @@
         <v>23</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="9">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
         <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2782,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -2797,18 +2804,18 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="9">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
         <v>117</v>
-      </c>
-      <c r="C38" t="s">
-        <v>118</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -2820,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -2835,6 +2842,44 @@
         <v>4</v>
       </c>
       <c r="M38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="9">
+        <v>2903</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>121</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1002</v>
+      </c>
+      <c r="K39" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="M39">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
   <si>
     <t>//Remark</t>
   </si>
@@ -86,24 +86,6 @@
   </si>
   <si>
     <t>imgIconSkill_Default</t>
-  </si>
-  <si>
-    <t>Magic Apprentice</t>
-  </si>
-  <si>
-    <t>Increase ATK by 1 point.</t>
-  </si>
-  <si>
-    <t>Numerical</t>
-  </si>
-  <si>
-    <t>1011HP,1021ATK,1031DEF,1041RES,1051MOVE,1061AP</t>
-  </si>
-  <si>
-    <t>Mage Armor</t>
-  </si>
-  <si>
-    <t>Increase RES by 1 point.</t>
   </si>
   <si>
     <t>Fire Ball</t>
@@ -195,7 +177,8 @@
     <t>Drown</t>
   </si>
   <si>
-    <t>Fourtain will turn soil tile into water tile</t>
+    <t>AP Cost of Fourtain +1.
+Fourtain will turn soil tile into water tile.</t>
   </si>
   <si>
     <t>Lightning Bolt</t>
@@ -267,15 +250,6 @@
   </si>
   <si>
     <t>imgIconSkill_BFStrike</t>
-  </si>
-  <si>
-    <t>Worker Strength</t>
-  </si>
-  <si>
-    <t>Pressure Resist</t>
-  </si>
-  <si>
-    <t>Increase DEF by 1 point.</t>
   </si>
   <si>
     <t>Worker Wind</t>
@@ -1391,12 +1365,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L19" sqref="L19"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1544,106 +1518,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="2">
-        <v>1021</v>
+    <row r="5" ht="28" spans="1:13">
+      <c r="A5" s="3">
+        <v>1101</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="b">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J5">
         <v>1001</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3">
+        <v>1191</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
-        <v>1041</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
+        <v>1101</v>
+      </c>
+      <c r="H6">
+        <v>1193</v>
+      </c>
+      <c r="I6" s="5" t="b">
         <v>0</v>
       </c>
       <c r="J6">
         <v>1001</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:13">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3">
+        <v>1192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1101</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="5">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1001</v>
       </c>
       <c r="I7" s="5" t="b">
         <v>0</v>
@@ -1652,27 +1626,27 @@
         <v>1001</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1684,7 +1658,7 @@
         <v>1101</v>
       </c>
       <c r="H8">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="I8" s="5" t="b">
         <v>0</v>
@@ -1696,15 +1670,15 @@
         <v>36</v>
       </c>
       <c r="L8" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3">
-        <v>1192</v>
+        <v>1102</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -1713,10 +1687,10 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1734,36 +1708,33 @@
         <v>39</v>
       </c>
       <c r="L9" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3">
-        <v>1193</v>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:13">
+      <c r="A10" s="6">
+        <v>1202</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1101</v>
-      </c>
-      <c r="H10">
-        <v>1191</v>
+        <v>1001</v>
       </c>
       <c r="I10" s="5" t="b">
         <v>0</v>
@@ -1778,12 +1749,12 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="3">
-        <v>1102</v>
+      <c r="A11" s="6">
+        <v>1201</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1801,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1101</v>
+        <v>1202</v>
       </c>
       <c r="I11" s="5" t="b">
         <v>0</v>
@@ -1816,17 +1787,17 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="12" ht="42" spans="1:13">
-      <c r="A12" s="6">
-        <v>1202</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
+        <v>1301</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
       <c r="D12" t="s">
@@ -1854,12 +1825,12 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6">
-        <v>1201</v>
+      <c r="A13" s="7">
+        <v>1302</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
@@ -1877,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1202</v>
+        <v>1301</v>
       </c>
       <c r="I13" s="5" t="b">
         <v>0</v>
@@ -1892,30 +1863,30 @@
         <v>3</v>
       </c>
       <c r="M13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:13">
       <c r="A14" s="7">
-        <v>1301</v>
+        <v>1391</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1001</v>
+        <v>1301</v>
       </c>
       <c r="I14" s="5" t="b">
         <v>0</v>
@@ -1924,24 +1895,24 @@
         <v>1001</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="5">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:13">
+      <c r="A15" s="8">
+        <v>1401</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="7">
-        <v>1302</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1953,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1301</v>
+        <v>1001</v>
       </c>
       <c r="I15" s="5" t="b">
         <v>0</v>
@@ -1962,36 +1933,36 @@
         <v>1001</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8">
+        <v>1402</v>
+      </c>
+      <c r="B16" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="5">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="7">
-        <v>1391</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>58</v>
       </c>
-      <c r="C16" t="s">
-        <v>59</v>
-      </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1301</v>
+        <v>1401</v>
       </c>
       <c r="I16" s="5" t="b">
         <v>0</v>
@@ -2000,36 +1971,36 @@
         <v>1001</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="L16" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" ht="28" spans="1:13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="8">
-        <v>1401</v>
+        <v>1491</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1001</v>
+        <v>1401</v>
       </c>
       <c r="I17" s="5" t="b">
         <v>0</v>
@@ -2038,36 +2009,36 @@
         <v>1001</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="9">
+        <v>1901</v>
+      </c>
+      <c r="B18" t="s">
         <v>62</v>
       </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="8">
-        <v>1402</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18">
-        <v>1401</v>
+      <c r="G18" t="s">
+        <v>64</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2079,33 +2050,33 @@
         <v>65</v>
       </c>
       <c r="L18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="8">
-        <v>1491</v>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:13">
+      <c r="A19" s="9">
+        <v>1902</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E19" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19">
-        <v>1401</v>
+      <c r="G19" t="s">
+        <v>68</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2114,24 +2085,24 @@
         <v>1001</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="L19" s="5">
+        <v>4</v>
+      </c>
+      <c r="M19">
         <v>2</v>
       </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" ht="28" spans="1:13">
       <c r="A20" s="9">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2143,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2152,94 +2123,94 @@
         <v>1001</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L20" s="5">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="21" ht="28" spans="1:13">
-      <c r="A21" s="9">
-        <v>1902</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2">
+        <v>2001</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="5">
-        <v>3</v>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="5" t="b">
-        <v>0</v>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1001</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="5">
-        <v>4</v>
+        <v>1002</v>
+      </c>
+      <c r="K21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" ht="28" spans="1:13">
-      <c r="A22" s="9">
-        <v>1903</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3">
+        <v>2101</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="4" t="s">
         <v>77</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="5">
-        <v>3</v>
+      <c r="E22">
+        <v>2</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" s="5" t="b">
+      <c r="G22">
+        <v>2001</v>
+      </c>
+      <c r="I22" t="b">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1001</v>
-      </c>
-      <c r="K22" s="5" t="s">
+        <v>1002</v>
+      </c>
+      <c r="K22" t="s">
         <v>79</v>
       </c>
-      <c r="L22" s="5">
-        <v>4</v>
+      <c r="L22">
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="2">
-        <v>2001</v>
+      <c r="A23" s="3">
+        <v>2191</v>
       </c>
       <c r="B23" t="s">
         <v>80</v>
@@ -2248,19 +2219,19 @@
         <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>1002</v>
@@ -2269,33 +2240,33 @@
         <v>82</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="2">
-        <v>2021</v>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:13">
+      <c r="A24" s="3">
+        <v>2102</v>
       </c>
       <c r="B24" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2101</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2303,37 +2274,37 @@
       <c r="J24">
         <v>1002</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="5">
-        <v>0</v>
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
       </c>
       <c r="M24">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
+        <v>2201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="2">
-        <v>2031</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2341,37 +2312,37 @@
       <c r="J25">
         <v>1002</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="5">
-        <v>0</v>
+      <c r="L25">
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="3">
-        <v>2101</v>
+      <c r="A26" s="6">
+        <v>2291</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2001</v>
+        <v>2201</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2380,36 +2351,36 @@
         <v>1002</v>
       </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="3">
-        <v>2191</v>
+      <c r="A27" s="6">
+        <v>2202</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>2101</v>
+        <v>2201</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -2418,18 +2389,18 @@
         <v>1002</v>
       </c>
       <c r="K27" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:13">
-      <c r="A28" s="3">
-        <v>2102</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="7">
+        <v>2301</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
@@ -2447,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2459,15 +2430,15 @@
         <v>94</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="6">
-        <v>2201</v>
+      <c r="A29" s="7">
+        <v>2302</v>
       </c>
       <c r="B29" t="s">
         <v>95</v>
@@ -2485,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2001</v>
+        <v>2301</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2494,36 +2465,36 @@
         <v>1002</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
         <v>1</v>
       </c>
-      <c r="M29">
-        <v>-1</v>
-      </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6">
-        <v>2291</v>
+      <c r="A30" s="8">
+        <v>2401</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2201</v>
+        <v>2001</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2535,33 +2506,33 @@
         <v>23</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6">
-        <v>2202</v>
+      <c r="A31" s="8">
+        <v>2491</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2201</v>
+        <v>2401</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2573,21 +2544,21 @@
         <v>23</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="7">
-        <v>2301</v>
+      <c r="A32" s="8">
+        <v>2402</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2599,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>2001</v>
+        <v>2401</v>
       </c>
       <c r="I32" t="b">
         <v>0</v>
@@ -2608,18 +2579,18 @@
         <v>1002</v>
       </c>
       <c r="K32" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="7">
-        <v>2302</v>
+      <c r="A33" s="9">
+        <v>2901</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
@@ -2631,13 +2602,13 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33">
-        <v>2301</v>
+      <c r="G33" t="s">
+        <v>106</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2646,18 +2617,18 @@
         <v>1002</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="8">
-        <v>2401</v>
+      <c r="A34" s="9">
+        <v>2902</v>
       </c>
       <c r="B34" t="s">
         <v>107</v>
@@ -2669,13 +2640,13 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="G34">
-        <v>2001</v>
+      <c r="G34" t="s">
+        <v>109</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2687,33 +2658,33 @@
         <v>23</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="9">
+        <v>2903</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="8">
-        <v>2491</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
       <c r="F35">
         <v>0</v>
       </c>
-      <c r="G35">
-        <v>2401</v>
+      <c r="G35" t="s">
+        <v>112</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2725,161 +2696,9 @@
         <v>23</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="8">
-        <v>2402</v>
-      </c>
-      <c r="B36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>2401</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1002</v>
-      </c>
-      <c r="K36" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="9">
-        <v>2901</v>
-      </c>
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>1002</v>
-      </c>
-      <c r="K37" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37">
-        <v>4</v>
-      </c>
-      <c r="M37">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="9">
-        <v>2902</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38">
-        <v>3</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>1002</v>
-      </c>
-      <c r="K38" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
-      <c r="M38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="9">
-        <v>2903</v>
-      </c>
-      <c r="B39" t="s">
-        <v>119</v>
-      </c>
-      <c r="C39" t="s">
-        <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39">
-        <v>3</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39" t="s">
-        <v>121</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>1002</v>
-      </c>
-      <c r="K39" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-      <c r="M39">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
   <si>
     <t>//Remark</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>imgIconSkill_Gravity</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>Gravity can break stone and randomly create special tile.</t>
   </si>
   <si>
     <t>Chronal Shift</t>
@@ -1365,12 +1371,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1754,19 +1760,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="6">
-        <v>1201</v>
+        <v>1291</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1781,24 +1787,24 @@
         <v>1001</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="5">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="6">
+        <v>1201</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="L11" s="5">
-        <v>3</v>
-      </c>
-      <c r="M11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="7">
-        <v>1301</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1810,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1001</v>
+        <v>1202</v>
       </c>
       <c r="I12" s="5" t="b">
         <v>0</v>
@@ -1819,24 +1825,24 @@
         <v>1001</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1848,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1301</v>
+        <v>1001</v>
       </c>
       <c r="I13" s="5" t="b">
         <v>0</v>
@@ -1857,30 +1863,30 @@
         <v>1001</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:13">
+    <row r="14" spans="1:13">
       <c r="A14" s="7">
-        <v>1391</v>
+        <v>1302</v>
       </c>
       <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1895,18 +1901,18 @@
         <v>1001</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L14" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:13">
-      <c r="A15" s="8">
-        <v>1401</v>
+      <c r="A15" s="7">
+        <v>1391</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -1915,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1001</v>
+        <v>1301</v>
       </c>
       <c r="I15" s="5" t="b">
         <v>0</v>
@@ -1933,24 +1939,24 @@
         <v>1001</v>
       </c>
       <c r="K15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="28" spans="1:13">
+      <c r="A16" s="8">
+        <v>1401</v>
+      </c>
+      <c r="B16" t="s">
         <v>56</v>
       </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="8">
-        <v>1402</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C16" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1962,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1401</v>
+        <v>1001</v>
       </c>
       <c r="I16" s="5" t="b">
         <v>0</v>
@@ -1971,10 +1977,10 @@
         <v>1001</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L16" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="8">
-        <v>1491</v>
+        <v>1402</v>
       </c>
       <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
         <v>60</v>
       </c>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -2009,18 +2015,18 @@
         <v>1001</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="L17" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="9">
-        <v>1901</v>
+      <c r="A18" s="8">
+        <v>1491</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -2029,16 +2035,16 @@
         <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E18" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" t="s">
-        <v>64</v>
+      <c r="G18">
+        <v>1401</v>
       </c>
       <c r="I18" s="5" t="b">
         <v>0</v>
@@ -2047,24 +2053,24 @@
         <v>1001</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="5">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="9">
+        <v>1901</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
-      </c>
-      <c r="L18" s="5">
-        <v>4</v>
-      </c>
-      <c r="M18">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="19" ht="28" spans="1:13">
-      <c r="A19" s="9">
-        <v>1902</v>
-      </c>
-      <c r="B19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2076,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I19" s="5" t="b">
         <v>0</v>
@@ -2085,24 +2091,24 @@
         <v>1001</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L19" s="5">
         <v>4</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:13">
       <c r="A20" s="9">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2114,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I20" s="5" t="b">
         <v>0</v>
@@ -2123,112 +2129,112 @@
         <v>1001</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L20" s="5">
         <v>4</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="2">
-        <v>2001</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:13">
+      <c r="A21" s="9">
+        <v>1903</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" s="5">
+        <v>3</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+      <c r="G21" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>1002</v>
-      </c>
-      <c r="K21" t="s">
+        <v>1001</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="5">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B22" t="s">
         <v>76</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3">
-        <v>2101</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>77</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
         <v>1002</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3">
-        <v>2191</v>
+        <v>2101</v>
       </c>
       <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
         <v>80</v>
       </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2101</v>
+        <v>2001</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2237,30 +2243,30 @@
         <v>1002</v>
       </c>
       <c r="K23" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
+        <v>2191</v>
+      </c>
+      <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:13">
-      <c r="A24" s="3">
-        <v>2102</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2275,24 +2281,24 @@
         <v>1002</v>
       </c>
       <c r="K24" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:13">
+      <c r="A25" s="3">
+        <v>2102</v>
+      </c>
+      <c r="B25" t="s">
         <v>85</v>
       </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="6">
-        <v>2201</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
       </c>
       <c r="D25" t="s">
         <v>22</v>
@@ -2304,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2001</v>
+        <v>2101</v>
       </c>
       <c r="I25" t="b">
         <v>0</v>
@@ -2313,18 +2319,18 @@
         <v>1002</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="6">
-        <v>2291</v>
+        <v>2201</v>
       </c>
       <c r="B26" t="s">
         <v>88</v>
@@ -2333,16 +2339,16 @@
         <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>2201</v>
+        <v>2001</v>
       </c>
       <c r="I26" t="b">
         <v>0</v>
@@ -2354,15 +2360,15 @@
         <v>23</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="6">
-        <v>2202</v>
+        <v>2291</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
@@ -2371,10 +2377,10 @@
         <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2392,15 +2398,15 @@
         <v>23</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="7">
-        <v>2301</v>
+      <c r="A28" s="6">
+        <v>2202</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
@@ -2418,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>2001</v>
+        <v>2201</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2427,24 +2433,24 @@
         <v>1002</v>
       </c>
       <c r="K28" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
         <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>22</v>
@@ -2456,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>2301</v>
+        <v>2001</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2465,24 +2471,24 @@
         <v>1002</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="8">
-        <v>2401</v>
+      <c r="A30" s="7">
+        <v>2302</v>
       </c>
       <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
         <v>98</v>
-      </c>
-      <c r="C30" t="s">
-        <v>99</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2494,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>2001</v>
+        <v>2301</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -2503,18 +2509,18 @@
         <v>1002</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
         <v>1</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="8">
-        <v>2491</v>
+        <v>2401</v>
       </c>
       <c r="B31" t="s">
         <v>100</v>
@@ -2523,16 +2529,16 @@
         <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -2544,15 +2550,15 @@
         <v>23</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="8">
-        <v>2402</v>
+        <v>2491</v>
       </c>
       <c r="B32" t="s">
         <v>102</v>
@@ -2561,10 +2567,10 @@
         <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2582,15 +2588,15 @@
         <v>23</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="9">
-        <v>2901</v>
+      <c r="A33" s="8">
+        <v>2402</v>
       </c>
       <c r="B33" t="s">
         <v>104</v>
@@ -2602,13 +2608,13 @@
         <v>22</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
-      <c r="G33" t="s">
-        <v>106</v>
+      <c r="G33">
+        <v>2401</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -2620,21 +2626,21 @@
         <v>23</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="9">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
         <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>22</v>
@@ -2646,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -2661,18 +2667,18 @@
         <v>4</v>
       </c>
       <c r="M34">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="9">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
         <v>110</v>
-      </c>
-      <c r="C35" t="s">
-        <v>111</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2684,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -2699,6 +2705,44 @@
         <v>4</v>
       </c>
       <c r="M35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="9">
+        <v>2903</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1002</v>
+      </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -333,7 +333,7 @@
     <t>Enlarge the range of the support skill</t>
   </si>
   <si>
-    <t>Inspire</t>
+    <t>Handover</t>
   </si>
   <si>
     <t>Gain 1 AP.</t>
@@ -1373,10 +1373,10 @@
   <sheetPr/>
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M11" sqref="M11"/>
+      <selection pane="topRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
   <si>
     <t>//Remark</t>
   </si>
@@ -25,9 +25,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>nodeType</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Elemental Ball</t>
   </si>
   <si>
-    <t>Normal Attack,deal ATK damage to single foe.</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -91,19 +85,12 @@
     <t>Fire Ball</t>
   </si>
   <si>
-    <t>Deal ATK+2 damage to all unit in skill radius,
-with one level burning.</t>
-  </si>
-  <si>
     <t>imgIconSkill_FireBall</t>
   </si>
   <si>
     <t>Quick Cast</t>
   </si>
   <si>
-    <t>AP Cost of Fire Ball - 1, but damage - 4.</t>
-  </si>
-  <si>
     <t>Passive</t>
   </si>
   <si>
@@ -113,111 +100,69 @@
     <t>Inferno</t>
   </si>
   <si>
-    <t>Skill Radius of Fire Ball + 1,but damage reduce 25%.</t>
-  </si>
-  <si>
     <t>imgIconSkill_FireRadius</t>
   </si>
   <si>
     <t>Focus</t>
   </si>
   <si>
-    <t>Fire Ball will cost all AP, each extra AP deal more damage.</t>
-  </si>
-  <si>
     <t>imgIconSkill_FireCostUp</t>
   </si>
   <si>
     <t>Boom!</t>
   </si>
   <si>
-    <t>Deal damage according to burning.</t>
-  </si>
-  <si>
     <t>imgIconSkill_Boom</t>
   </si>
   <si>
     <t xml:space="preserve">Gravity </t>
   </si>
   <si>
-    <t>Magic attack that reduce movement.
-Deal damage according to difference of movement between source and target.</t>
-  </si>
-  <si>
     <t>imgIconSkill_Gravity</t>
   </si>
   <si>
     <t>Genesis</t>
   </si>
   <si>
-    <t>Gravity can break stone and randomly create special tile.</t>
-  </si>
-  <si>
     <t>Chronal Shift</t>
   </si>
   <si>
-    <t>Dodge next attack.</t>
-  </si>
-  <si>
     <t>imgIconSkill_ChronalShift</t>
   </si>
   <si>
     <t>Fourtain</t>
   </si>
   <si>
-    <t>Magic attack that can heal plants in the range.</t>
-  </si>
-  <si>
     <t>imgIconSkill_Fourtain</t>
   </si>
   <si>
     <t>Clean</t>
   </si>
   <si>
-    <t>Remove 1 debuff for an ally or remove 1 buff for foe.</t>
-  </si>
-  <si>
     <t>imgIconSkill_Clean</t>
   </si>
   <si>
     <t>Drown</t>
   </si>
   <si>
-    <t>AP Cost of Fourtain +1.
-Fourtain will turn soil tile into water tile.</t>
-  </si>
-  <si>
     <t>Lightning Bolt</t>
   </si>
   <si>
-    <t>Magic attack that can be transmitted damage by water tile.
-The damage will reduce according to distance.</t>
-  </si>
-  <si>
     <t>imgIconSkill_Lightning</t>
   </si>
   <si>
     <t>Teleport</t>
   </si>
   <si>
-    <t>Change one character or plant position.</t>
-  </si>
-  <si>
     <t>imgIconSkill_Teleport</t>
   </si>
   <si>
     <t>High Voltage</t>
   </si>
   <si>
-    <t>The damage decay of Lightning Bolt will be reduced.</t>
-  </si>
-  <si>
     <t>Time Expand</t>
   </si>
   <si>
-    <t>Double the level of all debuff for foe or buff for allies</t>
-  </si>
-  <si>
     <t>1102;1201</t>
   </si>
   <si>
@@ -227,10 +172,6 @@
     <t>Infinity</t>
   </si>
   <si>
-    <t>Gain 3 Infinity.
-Infinity can enlarge next X skills' radius by 1 unit.</t>
-  </si>
-  <si>
     <t>1302;1402</t>
   </si>
   <si>
@@ -240,9 +181,6 @@
     <t>Rabbit Chant</t>
   </si>
   <si>
-    <t>Increase skill range and AP but can't get Movement when turn starts.</t>
-  </si>
-  <si>
     <t>1201;1302</t>
   </si>
   <si>
@@ -252,115 +190,70 @@
     <t>Strike</t>
   </si>
   <si>
-    <t>Normal Attack,deal ATK damage.</t>
-  </si>
-  <si>
     <t>imgIconSkill_BFStrike</t>
   </si>
   <si>
     <t>Worker Wind</t>
   </si>
   <si>
-    <t>Deal damage to enemy around.</t>
-  </si>
-  <si>
     <t>imgIconSkill_BFCut</t>
   </si>
   <si>
     <t>Injury Benefit</t>
   </si>
   <si>
-    <t>Deal more damage when lost more HP.</t>
-  </si>
-  <si>
     <t>imgIconSkill_InjuryB</t>
   </si>
   <si>
     <t>Overtime Work</t>
   </si>
   <si>
-    <t>Gain extra AP every turn but gain burning as well.</t>
-  </si>
-  <si>
     <t>imgIconSkill_Overtime</t>
   </si>
   <si>
     <t>Curse</t>
   </si>
   <si>
-    <t>The target will receive Fragile every time lost HP.</t>
-  </si>
-  <si>
     <t>Counter</t>
   </si>
   <si>
-    <t>Deal damage to the unit that attack Bond.</t>
-  </si>
-  <si>
     <t>Provoke</t>
   </si>
   <si>
-    <t>Attract enemies' attack.</t>
-  </si>
-  <si>
     <t>Take a Nap</t>
   </si>
   <si>
-    <t>Heal one character according to HP.</t>
-  </si>
-  <si>
     <t>imgIconSkill_Rest</t>
   </si>
   <si>
     <t>Fish Drat</t>
   </si>
   <si>
-    <t>Deal damage according to DEF, next strike will recover HP according to damage.</t>
-  </si>
-  <si>
     <t>imgIconSkill_FishDrat</t>
   </si>
   <si>
     <t>Rush Hour</t>
   </si>
   <si>
-    <t>Gain 3 Movement.</t>
-  </si>
-  <si>
     <t>Helper Hand</t>
   </si>
   <si>
-    <t>Enlarge the range of the support skill</t>
-  </si>
-  <si>
     <t>Handover</t>
   </si>
   <si>
-    <t>Gain 1 AP.</t>
-  </si>
-  <si>
     <t>Final Guard</t>
   </si>
   <si>
-    <t>HP won't become 0.</t>
-  </si>
-  <si>
     <t>2102;2202</t>
   </si>
   <si>
     <t>Super Worker</t>
   </si>
   <si>
-    <t>Increase ATK,DEF,RES,max Movement by 1.</t>
-  </si>
-  <si>
     <t>2302;2402</t>
   </si>
   <si>
     <t>Finish Work</t>
-  </si>
-  <si>
-    <t>Cost HP to deal damage, the damage will be equal to lost HP.</t>
   </si>
   <si>
     <t>2202;2302</t>
@@ -1021,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1371,26 +1261,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B33" sqref="B33"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="17.0909090909091" customWidth="1"/>
-    <col min="3" max="3" width="61.7272727272727" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="7" width="17.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="13.5454545454545" customWidth="1"/>
-    <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.4545454545455" customWidth="1"/>
-    <col min="11" max="11" width="25.7272727272727" customWidth="1"/>
-    <col min="14" max="14" width="47.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="6" width="17.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="13.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="12.4545454545455" customWidth="1"/>
+    <col min="10" max="10" width="25.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="47.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1398,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1408,7 +1297,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1435,759 +1324,699 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
-      <c r="N2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1001</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1001</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="28" spans="1:13">
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1001</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5">
+      <c r="H5" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1001</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="5">
+      <c r="J5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="4">
         <v>1</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <v>-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6" s="3">
         <v>1191</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="G6">
-        <v>1101</v>
-      </c>
-      <c r="H6">
         <v>1193</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="H6" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1001</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="5">
-        <v>2</v>
-      </c>
-      <c r="M6">
+      <c r="J6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6">
         <v>-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7" s="3">
         <v>1192</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="5">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
         <v>1101</v>
       </c>
-      <c r="I7" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="H7" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1001</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="5">
-        <v>2</v>
-      </c>
-      <c r="M7">
+      <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7">
         <v>-2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" s="3">
         <v>1193</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="5">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4">
         <v>1</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8">
-        <v>0</v>
+        <v>1101</v>
       </c>
       <c r="G8">
-        <v>1101</v>
-      </c>
-      <c r="H8">
         <v>1191</v>
       </c>
-      <c r="I8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8">
+      <c r="H8" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1001</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="J8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="4">
         <v>1</v>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>-5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9" s="3">
         <v>1102</v>
       </c>
       <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1101</v>
+      </c>
+      <c r="H9" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1001</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="5">
+        <v>1202</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1001</v>
+      </c>
+      <c r="H10" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1001</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="5">
+        <v>1291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1202</v>
+      </c>
+      <c r="H11" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1001</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="5">
+        <v>1201</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1202</v>
+      </c>
+      <c r="H12" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1001</v>
+      </c>
+      <c r="J12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="K12" s="4">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="6">
+        <v>1301</v>
+      </c>
+      <c r="B13" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1101</v>
-      </c>
-      <c r="I9" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>1001</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="H13" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>1001</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="5">
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="6">
+        <v>1302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1301</v>
+      </c>
+      <c r="H14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1001</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="4">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="10" ht="42" spans="1:13">
-      <c r="A10" s="6">
-        <v>1202</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="6">
+        <v>1391</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1301</v>
+      </c>
+      <c r="H15" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>1001</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="7">
+        <v>1401</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>1001</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="5">
+      <c r="H16" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1001</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="4">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="6">
-        <v>1291</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="7">
+        <v>1402</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1401</v>
+      </c>
+      <c r="H17" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1001</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="7">
+        <v>1491</v>
+      </c>
+      <c r="B18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="4">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>1202</v>
-      </c>
-      <c r="I11" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1401</v>
+      </c>
+      <c r="H18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1001</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="5">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="6">
-        <v>1201</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>1202</v>
-      </c>
-      <c r="I12" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="J18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="4">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="8">
+        <v>1901</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>1001</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="J19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="8">
+        <v>1902</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="4">
         <v>3</v>
       </c>
-      <c r="M12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="7">
-        <v>1301</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>1001</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="J20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K20" s="4">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="8">
+        <v>1903</v>
+      </c>
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>1001</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="7">
-        <v>1302</v>
-      </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="5">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>1301</v>
-      </c>
-      <c r="I14" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>1001</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L14" s="5">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:13">
-      <c r="A15" s="7">
-        <v>1391</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1301</v>
-      </c>
-      <c r="I15" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1001</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="5">
-        <v>2</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="28" spans="1:13">
-      <c r="A16" s="8">
-        <v>1401</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="J21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1001</v>
-      </c>
-      <c r="I16" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1001</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="8">
-        <v>1402</v>
-      </c>
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="5">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>1401</v>
-      </c>
-      <c r="I17" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>1001</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L17" s="5">
-        <v>3</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="8">
-        <v>1491</v>
-      </c>
-      <c r="B18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1401</v>
-      </c>
-      <c r="I18" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>1001</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="5">
-        <v>2</v>
-      </c>
-      <c r="M18">
+      <c r="K21" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="9">
-        <v>1901</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="5">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>1001</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="5">
-        <v>4</v>
-      </c>
-      <c r="M19">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="20" ht="28" spans="1:13">
-      <c r="A20" s="9">
-        <v>1902</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>1001</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L20" s="5">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="28" spans="1:13">
-      <c r="A21" s="9">
-        <v>1903</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>1001</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L21" s="5">
-        <v>4</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -2195,554 +2024,509 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="b">
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <v>1002</v>
       </c>
-      <c r="K22" t="s">
-        <v>78</v>
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3">
         <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
         <v>2001</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1002</v>
       </c>
-      <c r="K23" t="s">
-        <v>81</v>
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
       </c>
       <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
         <v>-3</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
         <v>2101</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1002</v>
       </c>
-      <c r="K24" t="s">
-        <v>84</v>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>2</v>
-      </c>
-      <c r="M24">
         <v>-4</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:13">
+    <row r="25" customHeight="1" spans="1:12">
       <c r="A25" s="3">
         <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
         <v>2101</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1002</v>
       </c>
-      <c r="K25" t="s">
-        <v>87</v>
+      <c r="J25" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
       </c>
       <c r="L25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="5">
+        <v>2201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2001</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1002</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="5">
+        <v>2291</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2201</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1002</v>
+      </c>
+      <c r="J27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="5">
+        <v>2202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2201</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1002</v>
+      </c>
+      <c r="J28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="M25">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="6">
-        <v>2201</v>
-      </c>
-      <c r="B26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="L28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="6">
+        <v>2301</v>
+      </c>
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>2001</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>1002</v>
       </c>
-      <c r="K26" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26">
+      <c r="J29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29">
         <v>1</v>
-      </c>
-      <c r="M26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="6">
-        <v>2291</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>2201</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>1002</v>
-      </c>
-      <c r="K27" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="6">
-        <v>2202</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>2201</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>1002</v>
-      </c>
-      <c r="K28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="7">
-        <v>2301</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>2001</v>
-      </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>1002</v>
-      </c>
-      <c r="K29" t="s">
-        <v>96</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="M29">
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="6">
+        <v>2302</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2301</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1002</v>
+      </c>
+      <c r="J30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="7">
-        <v>2302</v>
-      </c>
-      <c r="B30" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>2301</v>
-      </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30">
+    <row r="31" spans="1:12">
+      <c r="A31" s="7">
+        <v>2401</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2001</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>1002</v>
       </c>
-      <c r="K30" t="s">
-        <v>99</v>
-      </c>
-      <c r="L30">
+      <c r="J31" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>3</v>
       </c>
-      <c r="M30">
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="7">
+        <v>2491</v>
+      </c>
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="8">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>2401</v>
       </c>
-      <c r="B31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>2001</v>
-      </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>1002</v>
       </c>
-      <c r="K31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
+      <c r="J32" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="7">
+        <v>2402</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2401</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1002</v>
+      </c>
+      <c r="J33" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33">
         <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="8">
-        <v>2491</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>2401</v>
-      </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>1002</v>
-      </c>
-      <c r="K32" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32">
-        <v>2</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="8">
-        <v>2402</v>
-      </c>
-      <c r="B33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>2401</v>
-      </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>1002</v>
-      </c>
-      <c r="K33" t="s">
-        <v>23</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
-      <c r="M33">
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="8">
+        <v>2901</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="9">
-        <v>2901</v>
-      </c>
-      <c r="B34" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1002</v>
+      </c>
+      <c r="J34" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="8">
+        <v>2902</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>1002</v>
       </c>
-      <c r="K34" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34">
+      <c r="J35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35">
         <v>4</v>
       </c>
-      <c r="M34">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="9">
-        <v>2902</v>
-      </c>
-      <c r="B35" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35">
+      <c r="L35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="8">
+        <v>2903</v>
+      </c>
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35">
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>1002</v>
       </c>
-      <c r="K35" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35">
+      <c r="J36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36">
         <v>4</v>
       </c>
-      <c r="M35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="9">
-        <v>2903</v>
-      </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>1002</v>
-      </c>
-      <c r="K36" t="s">
-        <v>23</v>
-      </c>
       <c r="L36">
-        <v>4</v>
-      </c>
-      <c r="M36">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,17 +4,30 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="14940" windowHeight="10010"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>//Remark</t>
   </si>
@@ -211,13 +224,22 @@
     <t>imgIconSkill_Overtime</t>
   </si>
   <si>
-    <t>Curse</t>
+    <t>Bully</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Bully</t>
   </si>
   <si>
     <t>Counter</t>
   </si>
   <si>
-    <t>Provoke</t>
+    <t>imgIconSkill_Fault</t>
+  </si>
+  <si>
+    <t>Mockery</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Mockery</t>
   </si>
   <si>
     <t>Take a Nap</t>
@@ -235,34 +257,52 @@
     <t>Rush Hour</t>
   </si>
   <si>
+    <t>imgIconSkill_RushHour</t>
+  </si>
+  <si>
     <t>Helper Hand</t>
   </si>
   <si>
+    <t>imgIconSkill_Help</t>
+  </si>
+  <si>
     <t>Handover</t>
   </si>
   <si>
-    <t>Final Guard</t>
+    <t>imgIconSkill_HandOver</t>
+  </si>
+  <si>
+    <t>Deadline</t>
   </si>
   <si>
     <t>2102;2202</t>
   </si>
   <si>
+    <t>imgIconSkill_Deadline</t>
+  </si>
+  <si>
     <t>Super Worker</t>
   </si>
   <si>
     <t>2302;2402</t>
   </si>
   <si>
+    <t>imgIconSkill_SuperWorker</t>
+  </si>
+  <si>
     <t>Finish Work</t>
   </si>
   <si>
     <t>2202;2302</t>
+  </si>
+  <si>
+    <t>imgIconSkill_FinishWork</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1263,10 +1303,10 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2171,7 +2211,7 @@
         <v>1002</v>
       </c>
       <c r="J26" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2185,7 +2225,7 @@
         <v>2291</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -2206,7 +2246,7 @@
         <v>1002</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2220,7 +2260,7 @@
         <v>2202</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -2241,7 +2281,7 @@
         <v>1002</v>
       </c>
       <c r="J28" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2255,7 +2295,7 @@
         <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -2276,7 +2316,7 @@
         <v>1002</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2290,7 +2330,7 @@
         <v>2302</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
         <v>20</v>
@@ -2311,7 +2351,7 @@
         <v>1002</v>
       </c>
       <c r="J30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2325,7 +2365,7 @@
         <v>2401</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -2346,7 +2386,7 @@
         <v>1002</v>
       </c>
       <c r="J31" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2360,7 +2400,7 @@
         <v>2491</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -2381,7 +2421,7 @@
         <v>1002</v>
       </c>
       <c r="J32" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2395,7 +2435,7 @@
         <v>2402</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -2416,7 +2456,7 @@
         <v>1002</v>
       </c>
       <c r="J33" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2430,7 +2470,7 @@
         <v>2901</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
@@ -2442,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -2451,7 +2491,7 @@
         <v>1002</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="K34">
         <v>4</v>
@@ -2465,7 +2505,7 @@
         <v>2902</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2477,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -2486,7 +2526,7 @@
         <v>1002</v>
       </c>
       <c r="J35" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -2500,7 +2540,7 @@
         <v>2903</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -2512,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -2521,7 +2561,7 @@
         <v>1002</v>
       </c>
       <c r="J36" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="K36">
         <v>4</v>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14940" windowHeight="10010"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>//Remark</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>imgIconSkill_Rest</t>
+  </si>
+  <si>
+    <t>Pretend Working</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Angry</t>
   </si>
   <si>
     <t>Fish Drat</t>
@@ -1301,12 +1307,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <selection pane="topRight" activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2327,16 +2333,16 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="6">
-        <v>2302</v>
+        <v>2391</v>
       </c>
       <c r="B30" t="s">
         <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2354,15 +2360,15 @@
         <v>74</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="7">
-        <v>2401</v>
+      <c r="A31" s="6">
+        <v>2302</v>
       </c>
       <c r="B31" t="s">
         <v>75</v>
@@ -2377,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>2001</v>
+        <v>2301</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -2389,30 +2395,30 @@
         <v>76</v>
       </c>
       <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
         <v>1</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="7">
-        <v>2491</v>
+        <v>2401</v>
       </c>
       <c r="B32" t="s">
         <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2401</v>
+        <v>2001</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -2424,24 +2430,24 @@
         <v>78</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7">
-        <v>2402</v>
+        <v>2491</v>
       </c>
       <c r="B33" t="s">
         <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2459,15 +2465,15 @@
         <v>80</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="8">
-        <v>2901</v>
+      <c r="A34" s="7">
+        <v>2402</v>
       </c>
       <c r="B34" t="s">
         <v>81</v>
@@ -2476,13 +2482,13 @@
         <v>20</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
-        <v>82</v>
+      <c r="F34">
+        <v>2401</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -2491,21 +2497,21 @@
         <v>1002</v>
       </c>
       <c r="J34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="8">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2517,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -2526,21 +2532,21 @@
         <v>1002</v>
       </c>
       <c r="J35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K35">
         <v>4</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="8">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -2552,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -2561,12 +2567,47 @@
         <v>1002</v>
       </c>
       <c r="J36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K36">
         <v>4</v>
       </c>
       <c r="L36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="8">
+        <v>2903</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>90</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1002</v>
+      </c>
+      <c r="J37" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/SkillNode.xlsx
+++ b/Assets/Excel/SkillNode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="14310" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="SkillNode" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>//Remark</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Active</t>
   </si>
   <si>
-    <t>imgIconSkill_Default</t>
+    <t>imgIconSkill_Pulse</t>
   </si>
   <si>
     <t>Fire Ball</t>
@@ -137,6 +137,9 @@
     <t>Genesis</t>
   </si>
   <si>
+    <t>imgIconSkill_Genesis</t>
+  </si>
+  <si>
     <t>Chronal Shift</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
     <t>Drown</t>
   </si>
   <si>
+    <t>imgIconSkill_Drown</t>
+  </si>
+  <si>
     <t>Lightning Bolt</t>
   </si>
   <si>
@@ -171,6 +177,9 @@
   </si>
   <si>
     <t>High Voltage</t>
+  </si>
+  <si>
+    <t>imgIconSkill_Voltage</t>
   </si>
   <si>
     <t>Time Expand</t>
@@ -1310,9 +1319,9 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M29" sqref="M29"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1692,7 +1701,7 @@
         <v>1001</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11" s="4">
         <v>2</v>
@@ -1706,7 +1715,7 @@
         <v>1201</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1727,7 +1736,7 @@
         <v>1001</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="4">
         <v>3</v>
@@ -1741,7 +1750,7 @@
         <v>1301</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1762,7 +1771,7 @@
         <v>1001</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
@@ -1776,7 +1785,7 @@
         <v>1302</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
@@ -1797,7 +1806,7 @@
         <v>1001</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K14" s="4">
         <v>3</v>
@@ -1811,7 +1820,7 @@
         <v>1391</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
@@ -1832,7 +1841,7 @@
         <v>1001</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
@@ -1846,7 +1855,7 @@
         <v>1401</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -1867,7 +1876,7 @@
         <v>1001</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
@@ -1881,7 +1890,7 @@
         <v>1402</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1902,7 +1911,7 @@
         <v>1001</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K17" s="4">
         <v>3</v>
@@ -1916,7 +1925,7 @@
         <v>1491</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1937,7 +1946,7 @@
         <v>1001</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -1951,7 +1960,7 @@
         <v>1901</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
@@ -1963,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H19" s="4" t="b">
         <v>0</v>
@@ -1972,7 +1981,7 @@
         <v>1001</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K19" s="4">
         <v>4</v>
@@ -1986,7 +1995,7 @@
         <v>1902</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
@@ -1998,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H20" s="4" t="b">
         <v>0</v>
@@ -2007,7 +2016,7 @@
         <v>1001</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K20" s="4">
         <v>4</v>
@@ -2021,7 +2030,7 @@
         <v>1903</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
@@ -2033,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H21" s="4" t="b">
         <v>0</v>
@@ -2042,7 +2051,7 @@
         <v>1001</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21" s="4">
         <v>4</v>
@@ -2056,7 +2065,7 @@
         <v>2001</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -2077,7 +2086,7 @@
         <v>1002</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2091,7 +2100,7 @@
         <v>2101</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -2112,7 +2121,7 @@
         <v>1002</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -2126,7 +2135,7 @@
         <v>2191</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
@@ -2147,7 +2156,7 @@
         <v>1002</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2161,7 +2170,7 @@
         <v>2102</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
@@ -2182,7 +2191,7 @@
         <v>1002</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2196,7 +2205,7 @@
         <v>2201</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -2217,7 +2226,7 @@
         <v>1002</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2231,7 +2240,7 @@
         <v>2291</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -2252,7 +2261,7 @@
         <v>1002</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2266,7 +2275,7 @@
         <v>2202</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C28" t="s">
         <v>20</v>
@@ -2287,7 +2296,7 @@
         <v>1002</v>
       </c>
       <c r="J28" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2301,7 +2310,7 @@
         <v>2301</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C29" t="s">
         <v>20</v>
@@ -2322,7 +2331,7 @@
         <v>1002</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2336,7 +2345,7 @@
         <v>2391</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -2357,7 +2366,7 @@
         <v>1002</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -2371,7 +2380,7 @@
         <v>2302</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
         <v>20</v>
@@ -2392,7 +2401,7 @@
         <v>1002</v>
       </c>
       <c r="J31" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2406,7 +2415,7 @@
         <v>2401</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C32" t="s">
         <v>20</v>
@@ -2427,7 +2436,7 @@
         <v>1002</v>
       </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2441,7 +2450,7 @@
         <v>2491</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -2462,7 +2471,7 @@
         <v>1002</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -2476,7 +2485,7 @@
         <v>2402</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C34" t="s">
         <v>20</v>
@@ -2497,7 +2506,7 @@
         <v>1002</v>
       </c>
       <c r="J34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2511,7 +2520,7 @@
         <v>2901</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C35" t="s">
         <v>20</v>
@@ -2523,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -2532,7 +2541,7 @@
         <v>1002</v>
       </c>
       <c r="J35" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K35">
         <v>4</v>
@@ -2546,7 +2555,7 @@
         <v>2902</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C36" t="s">
         <v>20</v>
@@ -2558,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -2567,7 +2576,7 @@
         <v>1002</v>
       </c>
       <c r="J36" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K36">
         <v>4</v>
@@ -2581,7 +2590,7 @@
         <v>2903</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
         <v>20</v>
@@ -2593,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -2602,7 +2611,7 @@
         <v>1002</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K37">
         <v>4</v>
